--- a/APMLA/Test.xlsx
+++ b/APMLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="224">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -281,18 +281,6 @@
     <t>SEGU5143467</t>
   </si>
   <si>
-    <t>MSKU3777094</t>
-  </si>
-  <si>
-    <t>DJLAXA3838786</t>
-  </si>
-  <si>
-    <t>7075358801</t>
-  </si>
-  <si>
-    <t>580834303</t>
-  </si>
-  <si>
     <t>SEGU6008369</t>
   </si>
   <si>
@@ -374,36 +362,6 @@
     <t>QSWB8174078</t>
   </si>
   <si>
-    <t>CAIU4440709</t>
-  </si>
-  <si>
-    <t>HYUNDAI FAITH</t>
-  </si>
-  <si>
-    <t>079E</t>
-  </si>
-  <si>
-    <t>7075360469</t>
-  </si>
-  <si>
-    <t>HDMUKGCA4872838</t>
-  </si>
-  <si>
-    <t>CAIU7488183</t>
-  </si>
-  <si>
-    <t>CAIU9976968</t>
-  </si>
-  <si>
-    <t>FSCU9630308</t>
-  </si>
-  <si>
-    <t>GAOU6213961</t>
-  </si>
-  <si>
-    <t>HDMU6863844</t>
-  </si>
-  <si>
     <t>BMOU4707781</t>
   </si>
   <si>
@@ -416,21 +374,12 @@
     <t>GJWB8464379</t>
   </si>
   <si>
-    <t>BMOU5087031</t>
+    <t>SEGU4674978</t>
   </si>
   <si>
     <t>065</t>
   </si>
   <si>
-    <t>7075366557</t>
-  </si>
-  <si>
-    <t>BUWB9298423</t>
-  </si>
-  <si>
-    <t>SEGU4674978</t>
-  </si>
-  <si>
     <t>7075358865</t>
   </si>
   <si>
@@ -452,138 +401,6 @@
     <t>HKWB8464904</t>
   </si>
   <si>
-    <t>BSIU9234218</t>
-  </si>
-  <si>
-    <t>7075360468</t>
-  </si>
-  <si>
-    <t>HDMUKGCA4872837</t>
-  </si>
-  <si>
-    <t>CAIU4353287</t>
-  </si>
-  <si>
-    <t>DFSU6389790</t>
-  </si>
-  <si>
-    <t>HDMU6883434</t>
-  </si>
-  <si>
-    <t>HMMU6158056</t>
-  </si>
-  <si>
-    <t>HMMU6192873</t>
-  </si>
-  <si>
-    <t>HMMU6286036</t>
-  </si>
-  <si>
-    <t>TCNU7703361</t>
-  </si>
-  <si>
-    <t>BSIU9205077</t>
-  </si>
-  <si>
-    <t>7075360466</t>
-  </si>
-  <si>
-    <t>HDMUKGCA4872807</t>
-  </si>
-  <si>
-    <t>CAIU7408721</t>
-  </si>
-  <si>
-    <t>CAXU9136711</t>
-  </si>
-  <si>
-    <t>DFSU6877182</t>
-  </si>
-  <si>
-    <t>DFSU6940449</t>
-  </si>
-  <si>
-    <t>DRYU9978391</t>
-  </si>
-  <si>
-    <t>HDMU6551907</t>
-  </si>
-  <si>
-    <t>HDMU6742122</t>
-  </si>
-  <si>
-    <t>HDMU6844253</t>
-  </si>
-  <si>
-    <t>HMMU6104358</t>
-  </si>
-  <si>
-    <t>HMMU6192493</t>
-  </si>
-  <si>
-    <t>HMMU6230818</t>
-  </si>
-  <si>
-    <t>TCLU8055651</t>
-  </si>
-  <si>
-    <t>TCLU8397510</t>
-  </si>
-  <si>
-    <t>TGBU6338011</t>
-  </si>
-  <si>
-    <t>BMOU5255285</t>
-  </si>
-  <si>
-    <t>7075360467</t>
-  </si>
-  <si>
-    <t>HDMUKGCA4872833</t>
-  </si>
-  <si>
-    <t>CAIU7200110</t>
-  </si>
-  <si>
-    <t>CAIU8159881</t>
-  </si>
-  <si>
-    <t>CAXU8161448</t>
-  </si>
-  <si>
-    <t>GESU6917959</t>
-  </si>
-  <si>
-    <t>HDMU6499579</t>
-  </si>
-  <si>
-    <t>HMMU6298783</t>
-  </si>
-  <si>
-    <t>TCLU5594053</t>
-  </si>
-  <si>
-    <t>TCNU5064636</t>
-  </si>
-  <si>
-    <t>TCNU7316526</t>
-  </si>
-  <si>
-    <t>TCNU7903837</t>
-  </si>
-  <si>
-    <t>TEMU7416762</t>
-  </si>
-  <si>
-    <t>TGBU5888862</t>
-  </si>
-  <si>
-    <t>TGBU6472329</t>
-  </si>
-  <si>
-    <t>TLLU5852238</t>
-  </si>
-  <si>
     <t>HDMU6575771</t>
   </si>
   <si>
@@ -602,18 +419,6 @@
     <t>HKWB8460786</t>
   </si>
   <si>
-    <t>TCNU1699963</t>
-  </si>
-  <si>
-    <t>DJLAXA3852239</t>
-  </si>
-  <si>
-    <t>7075361033</t>
-  </si>
-  <si>
-    <t>HDMUQSWB8098904</t>
-  </si>
-  <si>
     <t>7075364098</t>
   </si>
   <si>
@@ -659,6 +464,21 @@
     <t>HDMU6640901</t>
   </si>
   <si>
+    <t>MAGU2360361</t>
+  </si>
+  <si>
+    <t>EVER LIBRA</t>
+  </si>
+  <si>
+    <t>042E</t>
+  </si>
+  <si>
+    <t>7075368444</t>
+  </si>
+  <si>
+    <t>142900238803</t>
+  </si>
+  <si>
     <t>TCNU5749091</t>
   </si>
   <si>
@@ -668,6 +488,108 @@
     <t>NSNS493287</t>
   </si>
   <si>
+    <t>TCNU8653650</t>
+  </si>
+  <si>
+    <t>00066</t>
+  </si>
+  <si>
+    <t>DJLAXA3864528</t>
+  </si>
+  <si>
+    <t>7075375759</t>
+  </si>
+  <si>
+    <t>QSWB8174608</t>
+  </si>
+  <si>
+    <t>FSCU8501543</t>
+  </si>
+  <si>
+    <t>00071</t>
+  </si>
+  <si>
+    <t>7075364251</t>
+  </si>
+  <si>
+    <t>ZHWB1334433</t>
+  </si>
+  <si>
+    <t>GAOU6201364</t>
+  </si>
+  <si>
+    <t>CAXU8049588</t>
+  </si>
+  <si>
+    <t>7075368470</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4875059</t>
+  </si>
+  <si>
+    <t>TEMU6937719</t>
+  </si>
+  <si>
+    <t>WFHU5202195</t>
+  </si>
+  <si>
+    <t>CAIU8438762</t>
+  </si>
+  <si>
+    <t>TCNU8208742</t>
+  </si>
+  <si>
+    <t>DRYU9160785</t>
+  </si>
+  <si>
+    <t>CAIU7200595</t>
+  </si>
+  <si>
+    <t>HDMU6667883</t>
+  </si>
+  <si>
+    <t>DFSU6225311</t>
+  </si>
+  <si>
+    <t>HDMU6887595</t>
+  </si>
+  <si>
+    <t>SEGU6003177</t>
+  </si>
+  <si>
+    <t>7075369315</t>
+  </si>
+  <si>
+    <t>QSWB8174252</t>
+  </si>
+  <si>
+    <t>HDMU6783498</t>
+  </si>
+  <si>
+    <t>MSKU7693480</t>
+  </si>
+  <si>
+    <t>SEALAND PHILADELPHIA</t>
+  </si>
+  <si>
+    <t>7075312968</t>
+  </si>
+  <si>
+    <t>580230949</t>
+  </si>
+  <si>
+    <t>HDMU4636625</t>
+  </si>
+  <si>
+    <t>DJLAXA3864552</t>
+  </si>
+  <si>
+    <t>7075367749</t>
+  </si>
+  <si>
+    <t>QSWB8174293</t>
+  </si>
+  <si>
     <t>CAIU6230717</t>
   </si>
   <si>
@@ -680,6 +602,42 @@
     <t>HDMUHKWB1863947</t>
   </si>
   <si>
+    <t>HDMU6517651</t>
+  </si>
+  <si>
+    <t>7075368471</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4875064</t>
+  </si>
+  <si>
+    <t>CAIU7299657</t>
+  </si>
+  <si>
+    <t>TCNU9336820</t>
+  </si>
+  <si>
+    <t>CAIU7437144</t>
+  </si>
+  <si>
+    <t>TCLU8315960</t>
+  </si>
+  <si>
+    <t>CAIU9983735</t>
+  </si>
+  <si>
+    <t>HDMU6311125</t>
+  </si>
+  <si>
+    <t>TCNU4033604</t>
+  </si>
+  <si>
+    <t>TCLU5302423</t>
+  </si>
+  <si>
+    <t>HDMU6508032</t>
+  </si>
+  <si>
     <t>TCNU8518774</t>
   </si>
   <si>
@@ -690,6 +648,42 @@
   </si>
   <si>
     <t>HASU1335392</t>
+  </si>
+  <si>
+    <t>BMOU4590400</t>
+  </si>
+  <si>
+    <t>7075368472</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4875070</t>
+  </si>
+  <si>
+    <t>TLLU5779862</t>
+  </si>
+  <si>
+    <t>TCLU7215668</t>
+  </si>
+  <si>
+    <t>TCNU8601132</t>
+  </si>
+  <si>
+    <t>CCLU6843540</t>
+  </si>
+  <si>
+    <t>TCNU7039993</t>
+  </si>
+  <si>
+    <t>TCLU6734191</t>
+  </si>
+  <si>
+    <t>HDMU6782552</t>
+  </si>
+  <si>
+    <t>7075375890</t>
+  </si>
+  <si>
+    <t>BUWB9299212</t>
   </si>
 </sst>
 </file>
@@ -734,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1205,44 +1199,44 @@
         <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
         <v>90</v>
       </c>
       <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
         <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
         <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
@@ -1251,24 +1245,24 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>97</v>
@@ -1282,16 +1276,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
         <v>100</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>101</v>
       </c>
       <c r="E28" t="s">
         <v>101</v>
@@ -1314,15 +1308,15 @@
         <v>104</v>
       </c>
       <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
         <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>66</v>
@@ -1331,44 +1325,44 @@
         <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
         <v>110</v>
       </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
         <v>113</v>
@@ -1385,13 +1379,13 @@
         <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
         <v>118</v>
@@ -1405,230 +1399,230 @@
         <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
         <v>122</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" t="s">
         <v>123</v>
-      </c>
-      <c r="E34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
         <v>123</v>
-      </c>
-      <c r="E35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" t="s">
         <v>123</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" t="s">
-        <v>123</v>
-      </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
         <v>144</v>
@@ -1637,1087 +1631,867 @@
         <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
         <v>146</v>
       </c>
-      <c r="B46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" t="s">
         <v>147</v>
-      </c>
-      <c r="E46" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
         <v>147</v>
-      </c>
-      <c r="E47" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
         <v>147</v>
-      </c>
-      <c r="E48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
         <v>151</v>
       </c>
-      <c r="B49" t="s">
-        <v>121</v>
-      </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F54" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F56" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F59" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F60" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E61" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F62" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="F64" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E69" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E70" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F70" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F71" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E73" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E75" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F75" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E76" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F77" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="E80" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="E81" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="F84" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F85" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="B86" t="s">
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F86" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E87" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F87" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="F88" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>204</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" t="s">
-        <v>205</v>
-      </c>
-      <c r="E89" t="s">
-        <v>205</v>
-      </c>
-      <c r="F89" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>193</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" t="s">
-        <v>207</v>
-      </c>
-      <c r="E90" t="s">
-        <v>207</v>
-      </c>
-      <c r="F90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>193</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" t="s">
-        <v>208</v>
-      </c>
-      <c r="E91" t="s">
-        <v>208</v>
-      </c>
-      <c r="F91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>193</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" t="s">
-        <v>209</v>
-      </c>
-      <c r="E92" t="s">
-        <v>209</v>
-      </c>
-      <c r="F92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>210</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
-        <v>82</v>
-      </c>
-      <c r="D93" t="s">
-        <v>211</v>
-      </c>
-      <c r="E93" t="s">
-        <v>211</v>
-      </c>
-      <c r="F93" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>213</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" t="s">
-        <v>211</v>
-      </c>
-      <c r="E94" t="s">
-        <v>211</v>
-      </c>
-      <c r="F94" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>214</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>82</v>
-      </c>
-      <c r="D95" t="s">
-        <v>211</v>
-      </c>
-      <c r="E95" t="s">
-        <v>211</v>
-      </c>
-      <c r="F95" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>215</v>
-      </c>
-      <c r="B96" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" t="s">
-        <v>216</v>
-      </c>
-      <c r="E96" t="s">
-        <v>216</v>
-      </c>
-      <c r="F96" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>218</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>219</v>
-      </c>
-      <c r="D97" t="s">
-        <v>220</v>
-      </c>
-      <c r="E97" t="s">
-        <v>220</v>
-      </c>
-      <c r="F97" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>222</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98" t="s">
         <v>223</v>
-      </c>
-      <c r="E98" t="s">
-        <v>223</v>
-      </c>
-      <c r="F98" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>225</v>
-      </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>82</v>
-      </c>
-      <c r="D99" t="s">
-        <v>223</v>
-      </c>
-      <c r="E99" t="s">
-        <v>223</v>
-      </c>
-      <c r="F99" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/APMLA/Test.xlsx
+++ b/APMLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="287">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -275,57 +275,6 @@
     <t>MY561505</t>
   </si>
   <si>
-    <t>BMOU4080834</t>
-  </si>
-  <si>
-    <t>7075386771</t>
-  </si>
-  <si>
-    <t>HDMUKGWB4882404</t>
-  </si>
-  <si>
-    <t>CAIU7179137</t>
-  </si>
-  <si>
-    <t>HDMU6333850</t>
-  </si>
-  <si>
-    <t>HDMU6486695</t>
-  </si>
-  <si>
-    <t>HDMU6775152</t>
-  </si>
-  <si>
-    <t>HDMU6787425</t>
-  </si>
-  <si>
-    <t>SEGU6043436</t>
-  </si>
-  <si>
-    <t>TCKU6110752</t>
-  </si>
-  <si>
-    <t>TCNU6418185</t>
-  </si>
-  <si>
-    <t>TCNU7603927</t>
-  </si>
-  <si>
-    <t>TCNU9738500</t>
-  </si>
-  <si>
-    <t>TEMU7089839</t>
-  </si>
-  <si>
-    <t>TLLU5280092</t>
-  </si>
-  <si>
-    <t>TRLU6635198</t>
-  </si>
-  <si>
-    <t>WFHU5169733</t>
-  </si>
-  <si>
     <t>BSIU9229232</t>
   </si>
   <si>
@@ -401,6 +350,18 @@
     <t>TGBU6349931</t>
   </si>
   <si>
+    <t>GIPU4379423</t>
+  </si>
+  <si>
+    <t>DJLAXA3992275</t>
+  </si>
+  <si>
+    <t>7075386571</t>
+  </si>
+  <si>
+    <t>HKWB8460892</t>
+  </si>
+  <si>
     <t>CAIU9841936</t>
   </si>
   <si>
@@ -434,6 +395,18 @@
     <t>711734634</t>
   </si>
   <si>
+    <t>HDMU2722679</t>
+  </si>
+  <si>
+    <t>DJLAXA3993519</t>
+  </si>
+  <si>
+    <t>7075355269</t>
+  </si>
+  <si>
+    <t>NSWB0209745</t>
+  </si>
+  <si>
     <t>TTNU1187403</t>
   </si>
   <si>
@@ -581,6 +554,15 @@
     <t>7075384238</t>
   </si>
   <si>
+    <t>HDMU2602919</t>
+  </si>
+  <si>
+    <t>7075394242</t>
+  </si>
+  <si>
+    <t>BUWB9300933</t>
+  </si>
+  <si>
     <t>BMOU4235725</t>
   </si>
   <si>
@@ -668,6 +650,15 @@
     <t>TEMU7251512</t>
   </si>
   <si>
+    <t>CAIU6209751</t>
+  </si>
+  <si>
+    <t>7075376548</t>
+  </si>
+  <si>
+    <t>HDMUHPWB0462232</t>
+  </si>
+  <si>
     <t>BMOU5256759</t>
   </si>
   <si>
@@ -704,108 +695,6 @@
     <t>HKWB8460881</t>
   </si>
   <si>
-    <t>BSIU9163120</t>
-  </si>
-  <si>
-    <t>7075386767</t>
-  </si>
-  <si>
-    <t>HDMUKGWB4882368</t>
-  </si>
-  <si>
-    <t>BSIU9286715</t>
-  </si>
-  <si>
-    <t>CAIU7438475</t>
-  </si>
-  <si>
-    <t>CAIU9841047</t>
-  </si>
-  <si>
-    <t>DFSU6720552</t>
-  </si>
-  <si>
-    <t>DFSU7030309</t>
-  </si>
-  <si>
-    <t>HDMU6485507</t>
-  </si>
-  <si>
-    <t>HDMU6723797</t>
-  </si>
-  <si>
-    <t>HMMU6136592</t>
-  </si>
-  <si>
-    <t>HMMU6232596</t>
-  </si>
-  <si>
-    <t>TCNU6164835</t>
-  </si>
-  <si>
-    <t>TCNU8650651</t>
-  </si>
-  <si>
-    <t>TCNU9820325</t>
-  </si>
-  <si>
-    <t>TEMU6935418</t>
-  </si>
-  <si>
-    <t>TEMU7252205</t>
-  </si>
-  <si>
-    <t>BHCU4956317</t>
-  </si>
-  <si>
-    <t>7075386772</t>
-  </si>
-  <si>
-    <t>HDMUKGWB4882420</t>
-  </si>
-  <si>
-    <t>BMOU4149632</t>
-  </si>
-  <si>
-    <t>BSIU9946866</t>
-  </si>
-  <si>
-    <t>CAIU7479601</t>
-  </si>
-  <si>
-    <t>DFSU6481442</t>
-  </si>
-  <si>
-    <t>DFSU6671191</t>
-  </si>
-  <si>
-    <t>DFSU6698253</t>
-  </si>
-  <si>
-    <t>DRYU9738940</t>
-  </si>
-  <si>
-    <t>FSCU8507691</t>
-  </si>
-  <si>
-    <t>HDMU6544071</t>
-  </si>
-  <si>
-    <t>HDMU6552009</t>
-  </si>
-  <si>
-    <t>HDMU6668220</t>
-  </si>
-  <si>
-    <t>SEGU4696426</t>
-  </si>
-  <si>
-    <t>TCNU4319590</t>
-  </si>
-  <si>
-    <t>TLLU5819250</t>
-  </si>
-  <si>
     <t>MEDU5079696</t>
   </si>
   <si>
@@ -963,6 +852,27 @@
   </si>
   <si>
     <t>581032706</t>
+  </si>
+  <si>
+    <t>BMOU2915282</t>
+  </si>
+  <si>
+    <t>DJLAXA3992441</t>
+  </si>
+  <si>
+    <t>7075393236</t>
+  </si>
+  <si>
+    <t>BUWB9300836</t>
+  </si>
+  <si>
+    <t>PONU1928870</t>
+  </si>
+  <si>
+    <t>7075376555</t>
+  </si>
+  <si>
+    <t>581087726</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2024,53 +1934,53 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>88</v>
-      </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54">
@@ -2084,13 +1994,13 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
@@ -2104,13 +2014,13 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
@@ -2124,13 +2034,13 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57">
@@ -2144,13 +2054,13 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58">
@@ -2164,13 +2074,13 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
@@ -2178,653 +2088,653 @@
         <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F61" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F65" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F66" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F68" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F69" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E70" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E74" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
         <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="D76" t="s">
         <v>137</v>
       </c>
       <c r="E76" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" t="s">
         <v>138</v>
-      </c>
-      <c r="F76" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F79" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
         <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E80" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F80" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
         <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F82" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E84" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
         <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
         <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B89" t="s">
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E89" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F89" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
         <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D90" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E91" t="s">
         <v>162</v>
@@ -2835,2182 +2745,1402 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F92" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
         <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="D93" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F93" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
         <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E96" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E97" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E101" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F101" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E102" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F103" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E104" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E105" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F105" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="D106" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="D107" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E107" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E108" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E109" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D110" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E110" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D111" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E111" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F111" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D112" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E112" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F112" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D113" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E113" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F113" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D114" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E114" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F114" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D115" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E115" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F115" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D116" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E116" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F116" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E117" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F117" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C118" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118" t="s">
         <v>201</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
+        <v>201</v>
+      </c>
+      <c r="F118" t="s">
         <v>202</v>
-      </c>
-      <c r="E118" t="s">
-        <v>202</v>
-      </c>
-      <c r="F118" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E119" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F119" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="D120" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E120" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F120" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E121" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D122" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E122" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F122" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E123" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="F123" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="E124" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D125" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E125" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="D126" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="E126" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
         <v>24</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="E127" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B128" t="s">
         <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D128" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="E128" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B129" t="s">
         <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D129" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="E129" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B130" t="s">
         <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="E130" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
       </c>
       <c r="C131" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="D131" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E131" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F131" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D132" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E132" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E133" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F133" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E134" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E135" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D136" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E136" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F136" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D137" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E137" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F137" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D138" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E138" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F138" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D139" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E139" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F139" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D140" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="E140" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F140" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D141" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="E141" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F141" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D142" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E142" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F142" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D143" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E143" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F143" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D144" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E144" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F144" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D145" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E145" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F145" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D146" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E146" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F146" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D147" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E147" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F147" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D148" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E148" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F148" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D149" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E149" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F149" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D150" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E150" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F150" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D151" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E151" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F151" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D152" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E152" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F152" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D153" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E153" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F153" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D154" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E154" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F154" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D155" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E155" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F155" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D156" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E156" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F156" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C157" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D157" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E157" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F157" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D158" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E158" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F158" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="E159" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="F159" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D160" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="E160" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="F160" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="E161" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="F161" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>261</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" t="s">
-        <v>248</v>
-      </c>
-      <c r="E162" t="s">
-        <v>248</v>
-      </c>
-      <c r="F162" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>262</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" t="s">
-        <v>248</v>
-      </c>
-      <c r="E163" t="s">
-        <v>248</v>
-      </c>
-      <c r="F163" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>263</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" t="s">
-        <v>248</v>
-      </c>
-      <c r="E164" t="s">
-        <v>248</v>
-      </c>
-      <c r="F164" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>264</v>
-      </c>
-      <c r="B165" t="s">
-        <v>18</v>
-      </c>
-      <c r="C165" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" t="s">
-        <v>265</v>
-      </c>
-      <c r="E165" t="s">
-        <v>266</v>
-      </c>
-      <c r="F165" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>268</v>
-      </c>
-      <c r="B166" t="s">
-        <v>18</v>
-      </c>
-      <c r="C166" t="s">
-        <v>38</v>
-      </c>
-      <c r="D166" t="s">
-        <v>269</v>
-      </c>
-      <c r="E166" t="s">
-        <v>269</v>
-      </c>
-      <c r="F166" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>140</v>
-      </c>
-      <c r="B167" t="s">
-        <v>18</v>
-      </c>
-      <c r="C167" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" t="s">
-        <v>271</v>
-      </c>
-      <c r="E167" t="s">
-        <v>272</v>
-      </c>
-      <c r="F167" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>273</v>
-      </c>
-      <c r="B168" t="s">
-        <v>24</v>
-      </c>
-      <c r="C168" t="s">
-        <v>145</v>
-      </c>
-      <c r="D168" t="s">
-        <v>274</v>
-      </c>
-      <c r="E168" t="s">
-        <v>274</v>
-      </c>
-      <c r="F168" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>276</v>
-      </c>
-      <c r="B169" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" t="s">
-        <v>145</v>
-      </c>
-      <c r="D169" t="s">
-        <v>274</v>
-      </c>
-      <c r="E169" t="s">
-        <v>274</v>
-      </c>
-      <c r="F169" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>277</v>
-      </c>
-      <c r="B170" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" t="s">
-        <v>145</v>
-      </c>
-      <c r="D170" t="s">
-        <v>274</v>
-      </c>
-      <c r="E170" t="s">
-        <v>274</v>
-      </c>
-      <c r="F170" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>278</v>
-      </c>
-      <c r="B171" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" t="s">
-        <v>145</v>
-      </c>
-      <c r="D171" t="s">
-        <v>274</v>
-      </c>
-      <c r="E171" t="s">
-        <v>274</v>
-      </c>
-      <c r="F171" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>279</v>
-      </c>
-      <c r="B172" t="s">
-        <v>24</v>
-      </c>
-      <c r="C172" t="s">
-        <v>145</v>
-      </c>
-      <c r="D172" t="s">
-        <v>274</v>
-      </c>
-      <c r="E172" t="s">
-        <v>274</v>
-      </c>
-      <c r="F172" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>280</v>
-      </c>
-      <c r="B173" t="s">
-        <v>24</v>
-      </c>
-      <c r="C173" t="s">
-        <v>145</v>
-      </c>
-      <c r="D173" t="s">
-        <v>274</v>
-      </c>
-      <c r="E173" t="s">
-        <v>274</v>
-      </c>
-      <c r="F173" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>281</v>
-      </c>
-      <c r="B174" t="s">
-        <v>24</v>
-      </c>
-      <c r="C174" t="s">
-        <v>145</v>
-      </c>
-      <c r="D174" t="s">
-        <v>274</v>
-      </c>
-      <c r="E174" t="s">
-        <v>274</v>
-      </c>
-      <c r="F174" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>282</v>
-      </c>
-      <c r="B175" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" t="s">
-        <v>145</v>
-      </c>
-      <c r="D175" t="s">
-        <v>274</v>
-      </c>
-      <c r="E175" t="s">
-        <v>274</v>
-      </c>
-      <c r="F175" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>283</v>
-      </c>
-      <c r="B176" t="s">
-        <v>24</v>
-      </c>
-      <c r="C176" t="s">
-        <v>145</v>
-      </c>
-      <c r="D176" t="s">
-        <v>274</v>
-      </c>
-      <c r="E176" t="s">
-        <v>274</v>
-      </c>
-      <c r="F176" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>284</v>
-      </c>
-      <c r="B177" t="s">
-        <v>24</v>
-      </c>
-      <c r="C177" t="s">
-        <v>145</v>
-      </c>
-      <c r="D177" t="s">
-        <v>274</v>
-      </c>
-      <c r="E177" t="s">
-        <v>274</v>
-      </c>
-      <c r="F177" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>285</v>
-      </c>
-      <c r="B178" t="s">
-        <v>24</v>
-      </c>
-      <c r="C178" t="s">
-        <v>145</v>
-      </c>
-      <c r="D178" t="s">
-        <v>274</v>
-      </c>
-      <c r="E178" t="s">
-        <v>274</v>
-      </c>
-      <c r="F178" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
         <v>286</v>
-      </c>
-      <c r="B179" t="s">
-        <v>24</v>
-      </c>
-      <c r="C179" t="s">
-        <v>145</v>
-      </c>
-      <c r="D179" t="s">
-        <v>274</v>
-      </c>
-      <c r="E179" t="s">
-        <v>274</v>
-      </c>
-      <c r="F179" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>287</v>
-      </c>
-      <c r="B180" t="s">
-        <v>24</v>
-      </c>
-      <c r="C180" t="s">
-        <v>145</v>
-      </c>
-      <c r="D180" t="s">
-        <v>274</v>
-      </c>
-      <c r="E180" t="s">
-        <v>274</v>
-      </c>
-      <c r="F180" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>288</v>
-      </c>
-      <c r="B181" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" t="s">
-        <v>55</v>
-      </c>
-      <c r="D181" t="s">
-        <v>289</v>
-      </c>
-      <c r="E181" t="s">
-        <v>289</v>
-      </c>
-      <c r="F181" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>291</v>
-      </c>
-      <c r="B182" t="s">
-        <v>24</v>
-      </c>
-      <c r="C182" t="s">
-        <v>55</v>
-      </c>
-      <c r="D182" t="s">
-        <v>289</v>
-      </c>
-      <c r="E182" t="s">
-        <v>289</v>
-      </c>
-      <c r="F182" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>292</v>
-      </c>
-      <c r="B183" t="s">
-        <v>24</v>
-      </c>
-      <c r="C183" t="s">
-        <v>145</v>
-      </c>
-      <c r="D183" t="s">
-        <v>293</v>
-      </c>
-      <c r="E183" t="s">
-        <v>293</v>
-      </c>
-      <c r="F183" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>295</v>
-      </c>
-      <c r="B184" t="s">
-        <v>24</v>
-      </c>
-      <c r="C184" t="s">
-        <v>145</v>
-      </c>
-      <c r="D184" t="s">
-        <v>293</v>
-      </c>
-      <c r="E184" t="s">
-        <v>293</v>
-      </c>
-      <c r="F184" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>296</v>
-      </c>
-      <c r="B185" t="s">
-        <v>24</v>
-      </c>
-      <c r="C185" t="s">
-        <v>145</v>
-      </c>
-      <c r="D185" t="s">
-        <v>293</v>
-      </c>
-      <c r="E185" t="s">
-        <v>293</v>
-      </c>
-      <c r="F185" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>297</v>
-      </c>
-      <c r="B186" t="s">
-        <v>24</v>
-      </c>
-      <c r="C186" t="s">
-        <v>145</v>
-      </c>
-      <c r="D186" t="s">
-        <v>293</v>
-      </c>
-      <c r="E186" t="s">
-        <v>293</v>
-      </c>
-      <c r="F186" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>298</v>
-      </c>
-      <c r="B187" t="s">
-        <v>24</v>
-      </c>
-      <c r="C187" t="s">
-        <v>145</v>
-      </c>
-      <c r="D187" t="s">
-        <v>293</v>
-      </c>
-      <c r="E187" t="s">
-        <v>293</v>
-      </c>
-      <c r="F187" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>299</v>
-      </c>
-      <c r="B188" t="s">
-        <v>24</v>
-      </c>
-      <c r="C188" t="s">
-        <v>145</v>
-      </c>
-      <c r="D188" t="s">
-        <v>293</v>
-      </c>
-      <c r="E188" t="s">
-        <v>293</v>
-      </c>
-      <c r="F188" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>300</v>
-      </c>
-      <c r="B189" t="s">
-        <v>24</v>
-      </c>
-      <c r="C189" t="s">
-        <v>145</v>
-      </c>
-      <c r="D189" t="s">
-        <v>293</v>
-      </c>
-      <c r="E189" t="s">
-        <v>293</v>
-      </c>
-      <c r="F189" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>301</v>
-      </c>
-      <c r="B190" t="s">
-        <v>24</v>
-      </c>
-      <c r="C190" t="s">
-        <v>145</v>
-      </c>
-      <c r="D190" t="s">
-        <v>293</v>
-      </c>
-      <c r="E190" t="s">
-        <v>293</v>
-      </c>
-      <c r="F190" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>302</v>
-      </c>
-      <c r="B191" t="s">
-        <v>24</v>
-      </c>
-      <c r="C191" t="s">
-        <v>145</v>
-      </c>
-      <c r="D191" t="s">
-        <v>293</v>
-      </c>
-      <c r="E191" t="s">
-        <v>293</v>
-      </c>
-      <c r="F191" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>303</v>
-      </c>
-      <c r="B192" t="s">
-        <v>24</v>
-      </c>
-      <c r="C192" t="s">
-        <v>145</v>
-      </c>
-      <c r="D192" t="s">
-        <v>293</v>
-      </c>
-      <c r="E192" t="s">
-        <v>293</v>
-      </c>
-      <c r="F192" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>304</v>
-      </c>
-      <c r="B193" t="s">
-        <v>24</v>
-      </c>
-      <c r="C193" t="s">
-        <v>145</v>
-      </c>
-      <c r="D193" t="s">
-        <v>305</v>
-      </c>
-      <c r="E193" t="s">
-        <v>305</v>
-      </c>
-      <c r="F193" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>307</v>
-      </c>
-      <c r="B194" t="s">
-        <v>24</v>
-      </c>
-      <c r="C194" t="s">
-        <v>145</v>
-      </c>
-      <c r="D194" t="s">
-        <v>305</v>
-      </c>
-      <c r="E194" t="s">
-        <v>305</v>
-      </c>
-      <c r="F194" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>308</v>
-      </c>
-      <c r="B195" t="s">
-        <v>24</v>
-      </c>
-      <c r="C195" t="s">
-        <v>145</v>
-      </c>
-      <c r="D195" t="s">
-        <v>305</v>
-      </c>
-      <c r="E195" t="s">
-        <v>305</v>
-      </c>
-      <c r="F195" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>309</v>
-      </c>
-      <c r="B196" t="s">
-        <v>24</v>
-      </c>
-      <c r="C196" t="s">
-        <v>145</v>
-      </c>
-      <c r="D196" t="s">
-        <v>305</v>
-      </c>
-      <c r="E196" t="s">
-        <v>305</v>
-      </c>
-      <c r="F196" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>310</v>
-      </c>
-      <c r="B197" t="s">
-        <v>24</v>
-      </c>
-      <c r="C197" t="s">
-        <v>145</v>
-      </c>
-      <c r="D197" t="s">
-        <v>305</v>
-      </c>
-      <c r="E197" t="s">
-        <v>305</v>
-      </c>
-      <c r="F197" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>311</v>
-      </c>
-      <c r="B198" t="s">
-        <v>24</v>
-      </c>
-      <c r="C198" t="s">
-        <v>145</v>
-      </c>
-      <c r="D198" t="s">
-        <v>305</v>
-      </c>
-      <c r="E198" t="s">
-        <v>305</v>
-      </c>
-      <c r="F198" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>312</v>
-      </c>
-      <c r="B199" t="s">
-        <v>24</v>
-      </c>
-      <c r="C199" t="s">
-        <v>145</v>
-      </c>
-      <c r="D199" t="s">
-        <v>305</v>
-      </c>
-      <c r="E199" t="s">
-        <v>305</v>
-      </c>
-      <c r="F199" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>313</v>
-      </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" t="s">
-        <v>314</v>
-      </c>
-      <c r="E200" t="s">
-        <v>315</v>
-      </c>
-      <c r="F200" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/APMLA/Test.xlsx
+++ b/APMLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="201">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,75 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCNU7881281</t>
-  </si>
-  <si>
-    <t>GUDRUN MAERSK</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>7075393280</t>
-  </si>
-  <si>
-    <t>968008409</t>
-  </si>
-  <si>
-    <t>INKU2642383</t>
-  </si>
-  <si>
-    <t>MSKU1781433</t>
-  </si>
-  <si>
-    <t>MSKU9205141</t>
-  </si>
-  <si>
-    <t>MSKU8781158</t>
-  </si>
-  <si>
-    <t>MRKU1051599</t>
-  </si>
-  <si>
-    <t>PONU1568840</t>
-  </si>
-  <si>
-    <t>PONU1299530</t>
-  </si>
-  <si>
-    <t>CAIU6641913</t>
-  </si>
-  <si>
-    <t>HYUNDAI FAITH</t>
-  </si>
-  <si>
-    <t>080</t>
-  </si>
-  <si>
-    <t>7075401308</t>
-  </si>
-  <si>
-    <t>BUWB9301321</t>
-  </si>
-  <si>
-    <t>MSKU6882410</t>
-  </si>
-  <si>
-    <t>MSC VEGA</t>
-  </si>
-  <si>
-    <t>00915</t>
-  </si>
-  <si>
-    <t>DJLAXA4061626</t>
-  </si>
-  <si>
-    <t>7075393278</t>
-  </si>
-  <si>
-    <t>581446170</t>
-  </si>
-  <si>
     <t>HMMU6062062</t>
   </si>
   <si>
@@ -119,6 +50,120 @@
     <t>HKWB8460981</t>
   </si>
   <si>
+    <t>TCLU7408121</t>
+  </si>
+  <si>
+    <t>HYUNDAI FORCE</t>
+  </si>
+  <si>
+    <t>00072</t>
+  </si>
+  <si>
+    <t>DJLAXA4090489</t>
+  </si>
+  <si>
+    <t>7075379595</t>
+  </si>
+  <si>
+    <t>NSWB0211842</t>
+  </si>
+  <si>
+    <t>CSNU6401079</t>
+  </si>
+  <si>
+    <t>EVER LIBRA</t>
+  </si>
+  <si>
+    <t>00852</t>
+  </si>
+  <si>
+    <t>7075409771</t>
+  </si>
+  <si>
+    <t>6212309540</t>
+  </si>
+  <si>
+    <t>CLKU5009786</t>
+  </si>
+  <si>
+    <t>HYUNDAI SPLENDOR</t>
+  </si>
+  <si>
+    <t>00066</t>
+  </si>
+  <si>
+    <t>7075421119</t>
+  </si>
+  <si>
+    <t>QSWB8243350</t>
+  </si>
+  <si>
+    <t>CAIU4343930</t>
+  </si>
+  <si>
+    <t>072E</t>
+  </si>
+  <si>
+    <t>7075415308</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4891603</t>
+  </si>
+  <si>
+    <t>CAIU7198327</t>
+  </si>
+  <si>
+    <t>CAIU7472119</t>
+  </si>
+  <si>
+    <t>CAIU8844057</t>
+  </si>
+  <si>
+    <t>DFSU6623188</t>
+  </si>
+  <si>
+    <t>FCIU8929609</t>
+  </si>
+  <si>
+    <t>HDMU6356074</t>
+  </si>
+  <si>
+    <t>HDMU6537365</t>
+  </si>
+  <si>
+    <t>HMMU6030419</t>
+  </si>
+  <si>
+    <t>SEGU5043093</t>
+  </si>
+  <si>
+    <t>SEGU5086259</t>
+  </si>
+  <si>
+    <t>TEMU7287860</t>
+  </si>
+  <si>
+    <t>TEMU7541722</t>
+  </si>
+  <si>
+    <t>TGBU6353335</t>
+  </si>
+  <si>
+    <t>DFSU4109441</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>7075406434</t>
+  </si>
+  <si>
+    <t>NAWB2101121</t>
+  </si>
+  <si>
+    <t>DRYU4217698</t>
+  </si>
+  <si>
     <t>HDMU2622469</t>
   </si>
   <si>
@@ -143,55 +188,259 @@
     <t>HKWB8460980</t>
   </si>
   <si>
-    <t>MRSU4145009</t>
-  </si>
-  <si>
-    <t>DJLAXA4077946</t>
-  </si>
-  <si>
-    <t>7075409678</t>
-  </si>
-  <si>
-    <t>581454505</t>
+    <t>BMOU4696408</t>
+  </si>
+  <si>
+    <t>7075415312</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4891648</t>
+  </si>
+  <si>
+    <t>CAIU4437264</t>
+  </si>
+  <si>
+    <t>CAIU7154587</t>
+  </si>
+  <si>
+    <t>GAOU6232405</t>
+  </si>
+  <si>
+    <t>GATU8779750</t>
+  </si>
+  <si>
+    <t>HDMU6655780</t>
+  </si>
+  <si>
+    <t>HDMU6722996</t>
+  </si>
+  <si>
+    <t>HMMU6137285</t>
+  </si>
+  <si>
+    <t>SEGU6046040</t>
+  </si>
+  <si>
+    <t>TCNU5102947</t>
+  </si>
+  <si>
+    <t>TCNU7229777</t>
+  </si>
+  <si>
+    <t>TGBU6352302</t>
+  </si>
+  <si>
+    <t>TLLU5770660</t>
+  </si>
+  <si>
+    <t>WFHU5201481</t>
+  </si>
+  <si>
+    <t>WFHU5202003</t>
+  </si>
+  <si>
+    <t>DRYU9211516</t>
+  </si>
+  <si>
+    <t>7075412706</t>
+  </si>
+  <si>
+    <t>BUWB9302381</t>
+  </si>
+  <si>
+    <t>GAOU6184647</t>
+  </si>
+  <si>
+    <t>HDMU2730801</t>
+  </si>
+  <si>
+    <t>DJLAXA4102505</t>
+  </si>
+  <si>
+    <t>7075382432</t>
+  </si>
+  <si>
+    <t>NSWB0212078</t>
+  </si>
+  <si>
+    <t>BHCU4990796</t>
+  </si>
+  <si>
+    <t>7075410060</t>
+  </si>
+  <si>
+    <t>QSWB8243803</t>
+  </si>
+  <si>
+    <t>TCNU8027261</t>
+  </si>
+  <si>
+    <t>BSIU2646316</t>
+  </si>
+  <si>
+    <t>RFCU5066979</t>
+  </si>
+  <si>
+    <t>DJLAXA4102471</t>
+  </si>
+  <si>
+    <t>7075404779</t>
+  </si>
+  <si>
+    <t>QSWB8243453</t>
+  </si>
+  <si>
+    <t>HMMU6249990</t>
+  </si>
+  <si>
+    <t>DJLAXA4100588</t>
+  </si>
+  <si>
+    <t>7075407125</t>
+  </si>
+  <si>
+    <t>HKWB8460996</t>
   </si>
   <si>
     <t>TCNU8346042</t>
   </si>
   <si>
-    <t>HYUNDAI FORCE</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
     <t>7075410813</t>
   </si>
   <si>
     <t>QSWB8243636</t>
   </si>
   <si>
-    <t>GLDU7264367</t>
-  </si>
-  <si>
-    <t>DJLAXA4078553</t>
-  </si>
-  <si>
-    <t>7075403072</t>
-  </si>
-  <si>
-    <t>MEDUB4701828</t>
-  </si>
-  <si>
-    <t>BEAU4244110</t>
-  </si>
-  <si>
-    <t>DJLAXA4078252</t>
-  </si>
-  <si>
-    <t>7075391852</t>
-  </si>
-  <si>
-    <t>MY555044</t>
+    <t>HDMU2669635</t>
+  </si>
+  <si>
+    <t>DJLAXA4092092</t>
+  </si>
+  <si>
+    <t>7075404962</t>
+  </si>
+  <si>
+    <t>QSWB8243319</t>
+  </si>
+  <si>
+    <t>TLLU5784299</t>
+  </si>
+  <si>
+    <t>DJLAXA4099689</t>
+  </si>
+  <si>
+    <t>7075404967</t>
+  </si>
+  <si>
+    <t>QSWB8179039</t>
+  </si>
+  <si>
+    <t>BMOU4143470</t>
+  </si>
+  <si>
+    <t>7075415313</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4891661</t>
+  </si>
+  <si>
+    <t>BMOU5260039</t>
+  </si>
+  <si>
+    <t>BSIU9391454</t>
+  </si>
+  <si>
+    <t>BSIU9730922</t>
+  </si>
+  <si>
+    <t>CAIU4449218</t>
+  </si>
+  <si>
+    <t>CAIU7372383</t>
+  </si>
+  <si>
+    <t>CAIU7403714</t>
+  </si>
+  <si>
+    <t>HDMU6725260</t>
+  </si>
+  <si>
+    <t>HMMU6035160</t>
+  </si>
+  <si>
+    <t>HMMU6166998</t>
+  </si>
+  <si>
+    <t>HMMU6277820</t>
+  </si>
+  <si>
+    <t>HMMU6314354</t>
+  </si>
+  <si>
+    <t>TGBU6485563</t>
+  </si>
+  <si>
+    <t>TGHU6409950</t>
+  </si>
+  <si>
+    <t>TGHU8815943</t>
+  </si>
+  <si>
+    <t>HMMU6035848</t>
+  </si>
+  <si>
+    <t>DJLAXA4092310</t>
+  </si>
+  <si>
+    <t>7075403349</t>
+  </si>
+  <si>
+    <t>QSWB8243377</t>
+  </si>
+  <si>
+    <t>BMOU5167369</t>
+  </si>
+  <si>
+    <t>7075415309</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4891609</t>
+  </si>
+  <si>
+    <t>BSIU9619246</t>
+  </si>
+  <si>
+    <t>CAIU7408824</t>
+  </si>
+  <si>
+    <t>CAIU9842629</t>
+  </si>
+  <si>
+    <t>CLKU5004418</t>
+  </si>
+  <si>
+    <t>DRYU9612144</t>
+  </si>
+  <si>
+    <t>HDMU6834229</t>
+  </si>
+  <si>
+    <t>HDMU6865092</t>
+  </si>
+  <si>
+    <t>HDMU6878103</t>
+  </si>
+  <si>
+    <t>HDMU6896196</t>
+  </si>
+  <si>
+    <t>HMMU6130465</t>
+  </si>
+  <si>
+    <t>TCKU6101940</t>
+  </si>
+  <si>
+    <t>TCNU9938771</t>
   </si>
   <si>
     <t>GAOU6155063</t>
@@ -206,6 +455,141 @@
     <t>HKWB8472940</t>
   </si>
   <si>
+    <t>TGHU3116732</t>
+  </si>
+  <si>
+    <t>DJLAXA4091061</t>
+  </si>
+  <si>
+    <t>7075406185</t>
+  </si>
+  <si>
+    <t>N9KCA007648X</t>
+  </si>
+  <si>
+    <t>KOCU2003514</t>
+  </si>
+  <si>
+    <t>DJLAXA4092149</t>
+  </si>
+  <si>
+    <t>7075410161</t>
+  </si>
+  <si>
+    <t>QSWB8243936</t>
+  </si>
+  <si>
+    <t>MSCU5470826</t>
+  </si>
+  <si>
+    <t>7075409764</t>
+  </si>
+  <si>
+    <t>B4701893</t>
+  </si>
+  <si>
+    <t>MSCU5464145</t>
+  </si>
+  <si>
+    <t>MEDU7234554</t>
+  </si>
+  <si>
+    <t>CAIU4903629</t>
+  </si>
+  <si>
+    <t>CAIU7297628</t>
+  </si>
+  <si>
+    <t>7075415311</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4891636</t>
+  </si>
+  <si>
+    <t>DFSU6839346</t>
+  </si>
+  <si>
+    <t>FSCU9787508</t>
+  </si>
+  <si>
+    <t>GAOU6293864</t>
+  </si>
+  <si>
+    <t>HDMU6502266</t>
+  </si>
+  <si>
+    <t>HDMU6538417</t>
+  </si>
+  <si>
+    <t>HDMU6668642</t>
+  </si>
+  <si>
+    <t>HDMU6844150</t>
+  </si>
+  <si>
+    <t>HJMU1427089</t>
+  </si>
+  <si>
+    <t>HMMU6029640</t>
+  </si>
+  <si>
+    <t>HMMU6052383</t>
+  </si>
+  <si>
+    <t>HMMU6178514</t>
+  </si>
+  <si>
+    <t>HMMU6326289</t>
+  </si>
+  <si>
+    <t>HDMU6694507</t>
+  </si>
+  <si>
+    <t>7075411253</t>
+  </si>
+  <si>
+    <t>QSWB8243553</t>
+  </si>
+  <si>
+    <t>KOCU2010318</t>
+  </si>
+  <si>
+    <t>TCLU5404488</t>
+  </si>
+  <si>
+    <t>7075409862</t>
+  </si>
+  <si>
+    <t>GJWB8478828</t>
+  </si>
+  <si>
+    <t>TCNU5798537</t>
+  </si>
+  <si>
+    <t>TCLU4719789</t>
+  </si>
+  <si>
+    <t>DJLAXA4092110</t>
+  </si>
+  <si>
+    <t>7075404897</t>
+  </si>
+  <si>
+    <t>QSWB8243452</t>
+  </si>
+  <si>
+    <t>HDMU6764667</t>
+  </si>
+  <si>
+    <t>DJLAXA4092354</t>
+  </si>
+  <si>
+    <t>7075410004</t>
+  </si>
+  <si>
+    <t>SSWB2103111</t>
+  </si>
+  <si>
     <t>TGHU5243783</t>
   </si>
   <si>
@@ -219,6 +603,18 @@
   </si>
   <si>
     <t>CAIU4898055</t>
+  </si>
+  <si>
+    <t>MRKU1031294</t>
+  </si>
+  <si>
+    <t>DJLAXA4090457</t>
+  </si>
+  <si>
+    <t>7075401303</t>
+  </si>
+  <si>
+    <t>581510777</t>
   </si>
 </sst>
 </file>
@@ -263,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -303,230 +699,230 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -534,179 +930,1899 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" t="s">
+        <v>145</v>
+      </c>
+      <c r="F79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" t="s">
+        <v>149</v>
+      </c>
+      <c r="F80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" t="s">
+        <v>162</v>
+      </c>
+      <c r="E91" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" t="s">
+        <v>162</v>
+      </c>
+      <c r="F93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" t="s">
+        <v>162</v>
+      </c>
+      <c r="F94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" t="s">
+        <v>162</v>
+      </c>
+      <c r="E95" t="s">
+        <v>162</v>
+      </c>
+      <c r="F95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" t="s">
+        <v>162</v>
+      </c>
+      <c r="E96" t="s">
+        <v>162</v>
+      </c>
+      <c r="F96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" t="s">
+        <v>162</v>
+      </c>
+      <c r="F97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" t="s">
+        <v>162</v>
+      </c>
+      <c r="F98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" t="s">
+        <v>177</v>
+      </c>
+      <c r="F100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" t="s">
+        <v>181</v>
+      </c>
+      <c r="E101" t="s">
+        <v>181</v>
+      </c>
+      <c r="F101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" t="s">
+        <v>181</v>
+      </c>
+      <c r="E102" t="s">
+        <v>181</v>
+      </c>
+      <c r="F102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>185</v>
+      </c>
+      <c r="E103" t="s">
+        <v>186</v>
+      </c>
+      <c r="F103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" t="s">
+        <v>193</v>
+      </c>
+      <c r="E105" t="s">
+        <v>193</v>
+      </c>
+      <c r="F105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" t="s">
+        <v>193</v>
+      </c>
+      <c r="E106" t="s">
+        <v>193</v>
+      </c>
+      <c r="F106" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" t="s">
+        <v>193</v>
+      </c>
+      <c r="E107" t="s">
+        <v>193</v>
+      </c>
+      <c r="F107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>198</v>
+      </c>
+      <c r="E108" t="s">
+        <v>199</v>
+      </c>
+      <c r="F108" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/APMLA/Test.xlsx
+++ b/APMLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="196">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,258 +32,234 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCKU6104220</t>
+    <t>HDMU6786563</t>
+  </si>
+  <si>
+    <t>HYUNDAI GLOBAL</t>
+  </si>
+  <si>
+    <t>00067</t>
+  </si>
+  <si>
+    <t>DJLAXA4136738</t>
+  </si>
+  <si>
+    <t>7075395695</t>
+  </si>
+  <si>
+    <t>HDMUKNCA0204765</t>
+  </si>
+  <si>
+    <t>GAOU6341920</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>7075420478</t>
+  </si>
+  <si>
+    <t>BUCA9302249</t>
+  </si>
+  <si>
+    <t>HDMU2543436</t>
+  </si>
+  <si>
+    <t>TGBU2516162</t>
+  </si>
+  <si>
+    <t>7075415870</t>
+  </si>
+  <si>
+    <t>YZWB0803847</t>
+  </si>
+  <si>
+    <t>MRKU0915388</t>
+  </si>
+  <si>
+    <t>MSC ALTAIR</t>
+  </si>
+  <si>
+    <t>00918</t>
+  </si>
+  <si>
+    <t>DJLAXA4160282</t>
+  </si>
+  <si>
+    <t>7075414266</t>
+  </si>
+  <si>
+    <t>581731610</t>
+  </si>
+  <si>
+    <t>KOCU2010920</t>
+  </si>
+  <si>
+    <t>DJLAXA4155502</t>
+  </si>
+  <si>
+    <t>7075416851</t>
+  </si>
+  <si>
+    <t>QSWB8243982</t>
+  </si>
+  <si>
+    <t>BSIU2330924</t>
+  </si>
+  <si>
+    <t>7075416158</t>
+  </si>
+  <si>
+    <t>NAWB2101135</t>
+  </si>
+  <si>
+    <t>TCLU4172161</t>
+  </si>
+  <si>
+    <t>OOLU3629421</t>
+  </si>
+  <si>
+    <t>EVER LENIENT</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>7075413875</t>
+  </si>
+  <si>
+    <t>6211469850</t>
+  </si>
+  <si>
+    <t>TCLU4280295</t>
+  </si>
+  <si>
+    <t>DJLAXA4148504</t>
+  </si>
+  <si>
+    <t>7075418297</t>
+  </si>
+  <si>
+    <t>BUCA9301633</t>
+  </si>
+  <si>
+    <t>DFSU6884659</t>
   </si>
   <si>
     <t>MAERSK ENSENADA</t>
   </si>
   <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>7075415801</t>
-  </si>
-  <si>
-    <t>GJWB8478830</t>
-  </si>
-  <si>
-    <t>GAOU6154010</t>
-  </si>
-  <si>
-    <t>HDMU6786563</t>
-  </si>
-  <si>
-    <t>HYUNDAI GLOBAL</t>
-  </si>
-  <si>
-    <t>00067</t>
-  </si>
-  <si>
-    <t>DJLAXA4136738</t>
-  </si>
-  <si>
-    <t>7075395695</t>
-  </si>
-  <si>
-    <t>HDMUKNCA0204765</t>
-  </si>
-  <si>
-    <t>GAOU6341920</t>
-  </si>
-  <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>7075420478</t>
-  </si>
-  <si>
-    <t>BUCA9302249</t>
-  </si>
-  <si>
-    <t>HDMU2543436</t>
-  </si>
-  <si>
-    <t>SEGU6030130</t>
-  </si>
-  <si>
-    <t>7075422411</t>
-  </si>
-  <si>
-    <t>HKWB8472918</t>
-  </si>
-  <si>
-    <t>GAOU6378030</t>
-  </si>
-  <si>
-    <t>WFHU5173517</t>
-  </si>
-  <si>
-    <t>DJLAXA4129334</t>
-  </si>
-  <si>
-    <t>7075414456</t>
-  </si>
-  <si>
-    <t>ZHWB1334579</t>
-  </si>
-  <si>
-    <t>BSIU2584955</t>
-  </si>
-  <si>
-    <t>DJLAXA4129337</t>
-  </si>
-  <si>
-    <t>7075415881</t>
-  </si>
-  <si>
-    <t>ZHWB1334599</t>
-  </si>
-  <si>
-    <t>DRYU9209000</t>
-  </si>
-  <si>
-    <t>DJLAXA4128067</t>
-  </si>
-  <si>
-    <t>7075417396</t>
-  </si>
-  <si>
-    <t>QSWB8248153</t>
-  </si>
-  <si>
-    <t>CAIU9983355</t>
-  </si>
-  <si>
-    <t>7075416721</t>
-  </si>
-  <si>
-    <t>QSWB8243954</t>
-  </si>
-  <si>
-    <t>DRYU4223730</t>
-  </si>
-  <si>
-    <t>DJLAXA4129343</t>
-  </si>
-  <si>
-    <t>7075415862</t>
-  </si>
-  <si>
-    <t>QSWB8248140</t>
-  </si>
-  <si>
-    <t>MRKU4790165</t>
-  </si>
-  <si>
-    <t>MAERSK EDINBURGH</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>7075402481</t>
-  </si>
-  <si>
-    <t>968599111</t>
-  </si>
-  <si>
-    <t>MSKU8661574</t>
-  </si>
-  <si>
-    <t>CAXU9947241</t>
-  </si>
-  <si>
     <t>00917</t>
   </si>
   <si>
-    <t>7075414993</t>
-  </si>
-  <si>
-    <t>B4833290</t>
-  </si>
-  <si>
-    <t>TGBU5607137</t>
-  </si>
-  <si>
-    <t>BMOU4651620</t>
-  </si>
-  <si>
-    <t>TCLU9807394</t>
-  </si>
-  <si>
-    <t>CRXU9091735</t>
-  </si>
-  <si>
-    <t>MSCU5588104</t>
-  </si>
-  <si>
-    <t>DJLAXA4123408</t>
-  </si>
-  <si>
-    <t>7075407850</t>
-  </si>
-  <si>
-    <t>MY561786</t>
-  </si>
-  <si>
-    <t>HMMU6330205</t>
-  </si>
-  <si>
-    <t>DJLAXA4123403</t>
-  </si>
-  <si>
-    <t>7075415749</t>
-  </si>
-  <si>
-    <t>HKWB8472916</t>
-  </si>
-  <si>
-    <t>CZZU9968638</t>
-  </si>
-  <si>
-    <t>7075413872</t>
-  </si>
-  <si>
-    <t>SSWB2103121</t>
-  </si>
-  <si>
-    <t>BMOU5075724</t>
-  </si>
-  <si>
-    <t>TGBU6346568</t>
-  </si>
-  <si>
-    <t>TGBU2516162</t>
-  </si>
-  <si>
-    <t>7075415870</t>
-  </si>
-  <si>
-    <t>YZWB0803847</t>
-  </si>
-  <si>
-    <t>CAIU3495570</t>
-  </si>
-  <si>
-    <t>DJLAXA4123331</t>
-  </si>
-  <si>
-    <t>7075414838</t>
-  </si>
-  <si>
-    <t>HKWB8473081</t>
-  </si>
-  <si>
-    <t>TCLU1293771</t>
-  </si>
-  <si>
-    <t>DJLAXA4129311</t>
-  </si>
-  <si>
-    <t>7075421816</t>
-  </si>
-  <si>
-    <t>BUWB9303355</t>
-  </si>
-  <si>
-    <t>TCLU4280295</t>
-  </si>
-  <si>
-    <t>DJLAXA4148504</t>
-  </si>
-  <si>
-    <t>7075418297</t>
-  </si>
-  <si>
-    <t>BUCA9301633</t>
+    <t>DJLAXA4155805</t>
+  </si>
+  <si>
+    <t>7075411006</t>
+  </si>
+  <si>
+    <t>VNWB0473638</t>
+  </si>
+  <si>
+    <t>BSIU9208306</t>
+  </si>
+  <si>
+    <t>067E</t>
+  </si>
+  <si>
+    <t>7075419662</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4893775</t>
+  </si>
+  <si>
+    <t>CAIU7345670</t>
+  </si>
+  <si>
+    <t>CAIU9969038</t>
+  </si>
+  <si>
+    <t>DFSU7071205</t>
+  </si>
+  <si>
+    <t>FSCU8502323</t>
+  </si>
+  <si>
+    <t>GESU5756090</t>
+  </si>
+  <si>
+    <t>HDMU6516402</t>
+  </si>
+  <si>
+    <t>HDMU6543861</t>
+  </si>
+  <si>
+    <t>HMMU6110788</t>
+  </si>
+  <si>
+    <t>SEGU6022428</t>
+  </si>
+  <si>
+    <t>MRKU9188612</t>
+  </si>
+  <si>
+    <t>DJLAXA4161770</t>
+  </si>
+  <si>
+    <t>7075407893</t>
+  </si>
+  <si>
+    <t>711844479</t>
+  </si>
+  <si>
+    <t>AMFU8843094</t>
+  </si>
+  <si>
+    <t>7075419667</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4893785</t>
+  </si>
+  <si>
+    <t>BSIU9937777</t>
+  </si>
+  <si>
+    <t>CAIU7202411</t>
+  </si>
+  <si>
+    <t>HDMU6579308</t>
+  </si>
+  <si>
+    <t>DJLAXA4155712</t>
+  </si>
+  <si>
+    <t>7075416785</t>
+  </si>
+  <si>
+    <t>QSWB8248015</t>
+  </si>
+  <si>
+    <t>CAIU7306057</t>
+  </si>
+  <si>
+    <t>DJLAXA4155711</t>
+  </si>
+  <si>
+    <t>KOCU2014925</t>
+  </si>
+  <si>
+    <t>DJLAXA4148485</t>
+  </si>
+  <si>
+    <t>7075415864</t>
+  </si>
+  <si>
+    <t>QSWB8243987</t>
   </si>
   <si>
     <t>BMOU4254725</t>
   </si>
   <si>
-    <t>067E</t>
-  </si>
-  <si>
     <t>7075415314</t>
   </si>
   <si>
@@ -317,6 +293,189 @@
     <t>TCNU8754595</t>
   </si>
   <si>
+    <t>MSKU5760850</t>
+  </si>
+  <si>
+    <t>DJLAXA4160271</t>
+  </si>
+  <si>
+    <t>7075408260</t>
+  </si>
+  <si>
+    <t>968727091</t>
+  </si>
+  <si>
+    <t>BMOU5219821</t>
+  </si>
+  <si>
+    <t>7075419666</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4893788</t>
+  </si>
+  <si>
+    <t>BSIU9912357</t>
+  </si>
+  <si>
+    <t>CAIU7466651</t>
+  </si>
+  <si>
+    <t>CAIU8513927</t>
+  </si>
+  <si>
+    <t>DFSU6804490</t>
+  </si>
+  <si>
+    <t>DFSU6940480</t>
+  </si>
+  <si>
+    <t>HDMU6532384</t>
+  </si>
+  <si>
+    <t>HMMU6153352</t>
+  </si>
+  <si>
+    <t>TCLU5136180</t>
+  </si>
+  <si>
+    <t>TCNU1760050</t>
+  </si>
+  <si>
+    <t>TCNU6982024</t>
+  </si>
+  <si>
+    <t>TCNU8653753</t>
+  </si>
+  <si>
+    <t>TEMU7089572</t>
+  </si>
+  <si>
+    <t>TGBU6227722</t>
+  </si>
+  <si>
+    <t>TGBU6472714</t>
+  </si>
+  <si>
+    <t>CAIU7488943</t>
+  </si>
+  <si>
+    <t>7075419661</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4893771</t>
+  </si>
+  <si>
+    <t>CAIU9980818</t>
+  </si>
+  <si>
+    <t>HMMU6323274</t>
+  </si>
+  <si>
+    <t>TCLU7225100</t>
+  </si>
+  <si>
+    <t>TCLU9168570</t>
+  </si>
+  <si>
+    <t>TEMU7049986</t>
+  </si>
+  <si>
+    <t>TEMU7257613</t>
+  </si>
+  <si>
+    <t>TEMU7310343</t>
+  </si>
+  <si>
+    <t>TEMU7312599</t>
+  </si>
+  <si>
+    <t>UETU5010976</t>
+  </si>
+  <si>
+    <t>DJLAXA4162541</t>
+  </si>
+  <si>
+    <t>7075419165</t>
+  </si>
+  <si>
+    <t>HKWB8461053</t>
+  </si>
+  <si>
+    <t>HDMU6469912</t>
+  </si>
+  <si>
+    <t>HYUNDAI BRAVE</t>
+  </si>
+  <si>
+    <t>00077</t>
+  </si>
+  <si>
+    <t>7075422535</t>
+  </si>
+  <si>
+    <t>QSWB8243992</t>
+  </si>
+  <si>
+    <t>MRKU7936084</t>
+  </si>
+  <si>
+    <t>DJLAXA4148092</t>
+  </si>
+  <si>
+    <t>7075420449</t>
+  </si>
+  <si>
+    <t>581953252</t>
+  </si>
+  <si>
+    <t>BMOU4693712</t>
+  </si>
+  <si>
+    <t>7075419660</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4893735</t>
+  </si>
+  <si>
+    <t>HDMU6841130</t>
+  </si>
+  <si>
+    <t>DJLAXA4162544</t>
+  </si>
+  <si>
+    <t>7075419172</t>
+  </si>
+  <si>
+    <t>HKWB8461054</t>
+  </si>
+  <si>
+    <t>MEDU4978470</t>
+  </si>
+  <si>
+    <t>HYUNDAI FORCE</t>
+  </si>
+  <si>
+    <t>072E</t>
+  </si>
+  <si>
+    <t>7075404307</t>
+  </si>
+  <si>
+    <t>MH240097</t>
+  </si>
+  <si>
+    <t>HMMU9051035</t>
+  </si>
+  <si>
+    <t>DJLAXA4148603</t>
+  </si>
+  <si>
+    <t>7075413936</t>
+  </si>
+  <si>
+    <t>HKWB8461033</t>
+  </si>
+  <si>
     <t>BSIU9314611</t>
   </si>
   <si>
@@ -356,34 +515,91 @@
     <t>TRLU8142457</t>
   </si>
   <si>
-    <t>KOCU2014925</t>
-  </si>
-  <si>
-    <t>DJLAXA4148485</t>
-  </si>
-  <si>
-    <t>7075415864</t>
-  </si>
-  <si>
-    <t>QSWB8243987</t>
-  </si>
-  <si>
-    <t>MRKU7936084</t>
-  </si>
-  <si>
-    <t>MSC ALTAIR</t>
-  </si>
-  <si>
-    <t>00918</t>
-  </si>
-  <si>
-    <t>DJLAXA4148092</t>
-  </si>
-  <si>
-    <t>7075420449</t>
-  </si>
-  <si>
-    <t>581953252</t>
+    <t>GAOU6226064</t>
+  </si>
+  <si>
+    <t>7075415854</t>
+  </si>
+  <si>
+    <t>QSWB8243953</t>
+  </si>
+  <si>
+    <t>FSCU8509919</t>
+  </si>
+  <si>
+    <t>HDMU6783780</t>
+  </si>
+  <si>
+    <t>7075420476</t>
+  </si>
+  <si>
+    <t>HKWB8472765</t>
+  </si>
+  <si>
+    <t>CZZU8007472</t>
+  </si>
+  <si>
+    <t>CAAU5042651</t>
+  </si>
+  <si>
+    <t>CAIU4566338</t>
+  </si>
+  <si>
+    <t>7075419659</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4893729</t>
+  </si>
+  <si>
+    <t>BMOU4053973</t>
+  </si>
+  <si>
+    <t>7075419656</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4893724</t>
+  </si>
+  <si>
+    <t>BSIU9952853</t>
+  </si>
+  <si>
+    <t>CAIU7207199</t>
+  </si>
+  <si>
+    <t>BMOU4167580</t>
+  </si>
+  <si>
+    <t>7075419663</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4893781</t>
+  </si>
+  <si>
+    <t>DFSU6217039</t>
+  </si>
+  <si>
+    <t>DFSU6245339</t>
+  </si>
+  <si>
+    <t>HDMU4786353</t>
+  </si>
+  <si>
+    <t>DJLAXA4161270</t>
+  </si>
+  <si>
+    <t>7075411052</t>
+  </si>
+  <si>
+    <t>QSWB8243115</t>
+  </si>
+  <si>
+    <t>TCLU4199970</t>
+  </si>
+  <si>
+    <t>7075417903</t>
+  </si>
+  <si>
+    <t>HDMUQSWB8243812</t>
   </si>
 </sst>
 </file>
@@ -428,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -468,95 +684,95 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -565,193 +781,193 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -762,16 +978,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -782,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -802,16 +1018,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -822,16 +1038,16 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -842,636 +1058,1516 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
         <v>118</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="D52" t="s">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
         <v>121</v>
       </c>
-      <c r="E52" t="s">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
         <v>122</v>
       </c>
-      <c r="F52" t="s">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
         <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>168</v>
+      </c>
+      <c r="E84" t="s">
+        <v>168</v>
+      </c>
+      <c r="F84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" t="s">
+        <v>177</v>
+      </c>
+      <c r="F88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" t="s">
+        <v>185</v>
+      </c>
+      <c r="E92" t="s">
+        <v>185</v>
+      </c>
+      <c r="F92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" t="s">
+        <v>185</v>
+      </c>
+      <c r="F93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" t="s">
+        <v>185</v>
+      </c>
+      <c r="F94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>190</v>
+      </c>
+      <c r="E95" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/APMLA/Test.xlsx
+++ b/APMLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,166 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>MSKU7329328</t>
+    <t>FCIU8838983</t>
+  </si>
+  <si>
+    <t>MSC KALINA</t>
+  </si>
+  <si>
+    <t>00919</t>
+  </si>
+  <si>
+    <t>DJLAXA4219457</t>
+  </si>
+  <si>
+    <t>7075426581</t>
+  </si>
+  <si>
+    <t>HKWB8473119</t>
+  </si>
+  <si>
+    <t>MRKU2090244</t>
+  </si>
+  <si>
+    <t>DJLAXA4219477</t>
+  </si>
+  <si>
+    <t>7075426831</t>
+  </si>
+  <si>
+    <t>581957543</t>
+  </si>
+  <si>
+    <t>MSKU8266970</t>
+  </si>
+  <si>
+    <t>DJLAXA4219478</t>
+  </si>
+  <si>
+    <t>SUDU5761871</t>
+  </si>
+  <si>
+    <t>DJLAXA4219479</t>
+  </si>
+  <si>
+    <t>TGHU8879640</t>
+  </si>
+  <si>
+    <t>DJLAXA4219480</t>
+  </si>
+  <si>
+    <t>KOCU4057016</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>7075427291</t>
+  </si>
+  <si>
+    <t>HKWB8473120</t>
+  </si>
+  <si>
+    <t>DFSU6883143</t>
+  </si>
+  <si>
+    <t>DJLAXA4219511</t>
+  </si>
+  <si>
+    <t>7075427432</t>
+  </si>
+  <si>
+    <t>GJWB8478832</t>
+  </si>
+  <si>
+    <t>FCIU4153287</t>
+  </si>
+  <si>
+    <t>MAERSK EMERALD</t>
+  </si>
+  <si>
+    <t>DJLAXA4219147</t>
+  </si>
+  <si>
+    <t>7075421906</t>
+  </si>
+  <si>
+    <t>581724091</t>
+  </si>
+  <si>
+    <t>HDMU6491264</t>
+  </si>
+  <si>
+    <t>HYUNDAI COURAGE</t>
+  </si>
+  <si>
+    <t>00079</t>
+  </si>
+  <si>
+    <t>DJLAXA4220231</t>
+  </si>
+  <si>
+    <t>7075429428</t>
+  </si>
+  <si>
+    <t>QSWB8249105</t>
+  </si>
+  <si>
+    <t>CAIU7345665</t>
+  </si>
+  <si>
+    <t>DJLAXA4219143</t>
+  </si>
+  <si>
+    <t>7075405359</t>
+  </si>
+  <si>
+    <t>INCA0213174</t>
+  </si>
+  <si>
+    <t>PONU7930560</t>
+  </si>
+  <si>
+    <t>DJLAXA4222146</t>
+  </si>
+  <si>
+    <t>7075411025</t>
+  </si>
+  <si>
+    <t>606452211</t>
+  </si>
+  <si>
+    <t>KOCU4064611</t>
+  </si>
+  <si>
+    <t>DJLAXA4219496</t>
+  </si>
+  <si>
+    <t>7075427350</t>
+  </si>
+  <si>
+    <t>HKWB8473118</t>
+  </si>
+  <si>
+    <t>HDMU6867285</t>
+  </si>
+  <si>
+    <t>DJLAXA4205771</t>
+  </si>
+  <si>
+    <t>7075423459</t>
+  </si>
+  <si>
+    <t>VNWB0491246</t>
+  </si>
+  <si>
+    <t>TCNU6811886</t>
+  </si>
+  <si>
+    <t>DJLAXA4219512</t>
+  </si>
+  <si>
+    <t>CAIU7710027</t>
   </si>
   <si>
     <t>MSC ALTAIR</t>
@@ -41,193 +200,214 @@
     <t>00918</t>
   </si>
   <si>
-    <t>7075415070</t>
-  </si>
-  <si>
-    <t>581687724</t>
-  </si>
-  <si>
-    <t>TCNU7655725</t>
-  </si>
-  <si>
-    <t>7075409093</t>
-  </si>
-  <si>
-    <t>581518895</t>
-  </si>
-  <si>
-    <t>TCLU5520256</t>
-  </si>
-  <si>
-    <t>TEMU1571674</t>
-  </si>
-  <si>
-    <t>HYUNDAI BRAVE</t>
-  </si>
-  <si>
-    <t>00077</t>
-  </si>
-  <si>
-    <t>DJLAXA4179215</t>
-  </si>
-  <si>
-    <t>7075418140</t>
-  </si>
-  <si>
-    <t>SSWB2103120</t>
-  </si>
-  <si>
-    <t>GLDU5365912</t>
-  </si>
-  <si>
-    <t>DJLAXA4168939</t>
-  </si>
-  <si>
-    <t>7075422640</t>
-  </si>
-  <si>
-    <t>QSWB8248378</t>
-  </si>
-  <si>
-    <t>CAIU7386772</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>7075418341</t>
-  </si>
-  <si>
-    <t>ZHWB1334606</t>
-  </si>
-  <si>
-    <t>CAIU7206968</t>
-  </si>
-  <si>
-    <t>CAIU7403674</t>
-  </si>
-  <si>
-    <t>DFSU6217682</t>
-  </si>
-  <si>
-    <t>HMMU6212959</t>
-  </si>
-  <si>
-    <t>HDMU6571210</t>
-  </si>
-  <si>
-    <t>DJLAXA4168958</t>
-  </si>
-  <si>
-    <t>7075419201</t>
-  </si>
-  <si>
-    <t>ZHWB1334608</t>
-  </si>
-  <si>
-    <t>HDMU6843431</t>
-  </si>
-  <si>
-    <t>918</t>
-  </si>
-  <si>
-    <t>7075419373</t>
-  </si>
-  <si>
-    <t>HKWB8461084</t>
-  </si>
-  <si>
-    <t>CNSU2047135</t>
-  </si>
-  <si>
-    <t>KOCU2015161</t>
-  </si>
-  <si>
-    <t>HYUNDAI GLOBAL</t>
-  </si>
-  <si>
-    <t>00067</t>
-  </si>
-  <si>
-    <t>DJLAXA4179080</t>
-  </si>
-  <si>
-    <t>7075411338</t>
-  </si>
-  <si>
-    <t>QSWB8243352</t>
-  </si>
-  <si>
-    <t>TRLU7618092</t>
-  </si>
-  <si>
-    <t>7075413884</t>
-  </si>
-  <si>
-    <t>581679866</t>
-  </si>
-  <si>
-    <t>HDMU6581413</t>
-  </si>
-  <si>
-    <t>DJLAXA4179326</t>
-  </si>
-  <si>
-    <t>7075422976</t>
-  </si>
-  <si>
-    <t>QSWB8248040</t>
-  </si>
-  <si>
-    <t>DFSU6623151</t>
-  </si>
-  <si>
-    <t>7075422540</t>
-  </si>
-  <si>
-    <t>QSWB8248360</t>
-  </si>
-  <si>
-    <t>HDMU6429376</t>
-  </si>
-  <si>
-    <t>CAIU4411906</t>
-  </si>
-  <si>
-    <t>HDMU6469912</t>
-  </si>
-  <si>
-    <t>7075422535</t>
-  </si>
-  <si>
-    <t>QSWB8243992</t>
-  </si>
-  <si>
-    <t>TCLU4199970</t>
-  </si>
-  <si>
-    <t>7075417903</t>
-  </si>
-  <si>
-    <t>HDMUQSWB8243812</t>
-  </si>
-  <si>
-    <t>DFSU1140269</t>
-  </si>
-  <si>
-    <t>MAERSK ENSENADA</t>
-  </si>
-  <si>
-    <t>00917</t>
-  </si>
-  <si>
-    <t>DJLAXA4168837</t>
-  </si>
-  <si>
-    <t>7075415648</t>
-  </si>
-  <si>
-    <t>HKWB8473084</t>
+    <t>DJLAXA4207342</t>
+  </si>
+  <si>
+    <t>7075420537</t>
+  </si>
+  <si>
+    <t>GJWB8478831</t>
+  </si>
+  <si>
+    <t>GAOU6344452</t>
+  </si>
+  <si>
+    <t>DJLAXA4207340</t>
+  </si>
+  <si>
+    <t>7075420806</t>
+  </si>
+  <si>
+    <t>HKWB8473121</t>
+  </si>
+  <si>
+    <t>SEGU5151251</t>
+  </si>
+  <si>
+    <t>DJLAXA4207343</t>
+  </si>
+  <si>
+    <t>MRKU3039669</t>
+  </si>
+  <si>
+    <t>DJLAXA4222003</t>
+  </si>
+  <si>
+    <t>HDMU6308414</t>
+  </si>
+  <si>
+    <t>DJLAXA4223391</t>
+  </si>
+  <si>
+    <t>7075425750</t>
+  </si>
+  <si>
+    <t>ZHWB1334603</t>
+  </si>
+  <si>
+    <t>CAIU9977882</t>
+  </si>
+  <si>
+    <t>DJLAXA4223389</t>
+  </si>
+  <si>
+    <t>HDMU6776781</t>
+  </si>
+  <si>
+    <t>DJLAXA4223401</t>
+  </si>
+  <si>
+    <t>7075427475</t>
+  </si>
+  <si>
+    <t>ZHWB1334615</t>
+  </si>
+  <si>
+    <t>GCXU5010067</t>
+  </si>
+  <si>
+    <t>DJLAXA4223390</t>
+  </si>
+  <si>
+    <t>GAOU6206941</t>
+  </si>
+  <si>
+    <t>DJLAXA4223400</t>
+  </si>
+  <si>
+    <t>FCIU6454000</t>
+  </si>
+  <si>
+    <t>DJLAXA4230561</t>
+  </si>
+  <si>
+    <t>7075427448</t>
+  </si>
+  <si>
+    <t>B5051215</t>
+  </si>
+  <si>
+    <t>CXDU2273561</t>
+  </si>
+  <si>
+    <t>DJLAXA4223398</t>
+  </si>
+  <si>
+    <t>SEGU5111583</t>
+  </si>
+  <si>
+    <t>DJLAXA4223403</t>
+  </si>
+  <si>
+    <t>CAIU4439333</t>
+  </si>
+  <si>
+    <t>DJLAXA4223396</t>
+  </si>
+  <si>
+    <t>BMOU4131510</t>
+  </si>
+  <si>
+    <t>DJLAXA4223367</t>
+  </si>
+  <si>
+    <t>7075431183</t>
+  </si>
+  <si>
+    <t>BUWB9304037</t>
+  </si>
+  <si>
+    <t>CAAU5133411</t>
+  </si>
+  <si>
+    <t>DJLAXA4223388</t>
+  </si>
+  <si>
+    <t>DFSU6215859</t>
+  </si>
+  <si>
+    <t>DJLAXA4223399</t>
+  </si>
+  <si>
+    <t>TCNU1758520</t>
+  </si>
+  <si>
+    <t>DJLAXA4223478</t>
+  </si>
+  <si>
+    <t>7075427918</t>
+  </si>
+  <si>
+    <t>SSWB2103129</t>
+  </si>
+  <si>
+    <t>BSIU9939419</t>
+  </si>
+  <si>
+    <t>DJLAXA4223395</t>
+  </si>
+  <si>
+    <t>HDMU6561269</t>
+  </si>
+  <si>
+    <t>079E</t>
+  </si>
+  <si>
+    <t>7075436390</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4898173</t>
+  </si>
+  <si>
+    <t>HDMU6891403</t>
+  </si>
+  <si>
+    <t>CAIU7134554</t>
+  </si>
+  <si>
+    <t>DJLAXA4223397</t>
+  </si>
+  <si>
+    <t>HDMU4629586</t>
+  </si>
+  <si>
+    <t>DJLAXA4223439</t>
+  </si>
+  <si>
+    <t>7075429147</t>
+  </si>
+  <si>
+    <t>QSWB8249200</t>
+  </si>
+  <si>
+    <t>HDMU6777031</t>
+  </si>
+  <si>
+    <t>DJLAXA4223480</t>
+  </si>
+  <si>
+    <t>BHCU4994791</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>7075429077</t>
+  </si>
+  <si>
+    <t>QSWB8249070</t>
+  </si>
+  <si>
+    <t>BSIU2498420</t>
+  </si>
+  <si>
+    <t>CAIU7386710</t>
+  </si>
+  <si>
+    <t>HMMU6231630</t>
+  </si>
+  <si>
+    <t>DJLAXA4223402</t>
   </si>
 </sst>
 </file>
@@ -272,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -312,15 +492,15 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -329,18 +509,18 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -349,93 +529,93 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -443,299 +623,679 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/APMLA/Test.xlsx
+++ b/APMLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="113">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,6 +32,24 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>TCNU7405813</t>
+  </si>
+  <si>
+    <t>HYUNDAI TACOMA</t>
+  </si>
+  <si>
+    <t>00087</t>
+  </si>
+  <si>
+    <t>DJLAXA4354630</t>
+  </si>
+  <si>
+    <t>7075442363</t>
+  </si>
+  <si>
+    <t>ZHWB1334641</t>
+  </si>
+  <si>
     <t>DFSU6789374</t>
   </si>
   <si>
@@ -50,7 +68,244 @@
     <t>HKWB8461188</t>
   </si>
   <si>
-    <t>PONU7316589</t>
+    <t>CAIU9839733</t>
+  </si>
+  <si>
+    <t>HYUNDAI FORCE</t>
+  </si>
+  <si>
+    <t>073E</t>
+  </si>
+  <si>
+    <t>7075448983</t>
+  </si>
+  <si>
+    <t>HDMUQSLB8198704</t>
+  </si>
+  <si>
+    <t>DFSU6717754</t>
+  </si>
+  <si>
+    <t>GAOU6216528</t>
+  </si>
+  <si>
+    <t>TCLU9474293</t>
+  </si>
+  <si>
+    <t>BSIU3218610</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>7075442647</t>
+  </si>
+  <si>
+    <t>YZWB0803928</t>
+  </si>
+  <si>
+    <t>BEAU2048802</t>
+  </si>
+  <si>
+    <t>TEMU1653807</t>
+  </si>
+  <si>
+    <t>TCLU9198153</t>
+  </si>
+  <si>
+    <t>00073</t>
+  </si>
+  <si>
+    <t>DJLAXA4353648</t>
+  </si>
+  <si>
+    <t>7075447939</t>
+  </si>
+  <si>
+    <t>QSWB8343401</t>
+  </si>
+  <si>
+    <t>TCNU4579920</t>
+  </si>
+  <si>
+    <t>DJLAXA4354629</t>
+  </si>
+  <si>
+    <t>BSIU9184225</t>
+  </si>
+  <si>
+    <t>087E</t>
+  </si>
+  <si>
+    <t>7075453330</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4904907</t>
+  </si>
+  <si>
+    <t>BSIU9532172</t>
+  </si>
+  <si>
+    <t>CAIU7330963</t>
+  </si>
+  <si>
+    <t>FCIU8714200</t>
+  </si>
+  <si>
+    <t>GAOU6181680</t>
+  </si>
+  <si>
+    <t>GESU5823367</t>
+  </si>
+  <si>
+    <t>HDMU6572474</t>
+  </si>
+  <si>
+    <t>HDMU6762509</t>
+  </si>
+  <si>
+    <t>HMMU6181550</t>
+  </si>
+  <si>
+    <t>HMMU6217966</t>
+  </si>
+  <si>
+    <t>TCNU1968039</t>
+  </si>
+  <si>
+    <t>TCNU7406717</t>
+  </si>
+  <si>
+    <t>TEMU7318961</t>
+  </si>
+  <si>
+    <t>TLLU5771100</t>
+  </si>
+  <si>
+    <t>TRLU6995717</t>
+  </si>
+  <si>
+    <t>HMMU2050504</t>
+  </si>
+  <si>
+    <t>7075445943</t>
+  </si>
+  <si>
+    <t>YZWB0803931</t>
+  </si>
+  <si>
+    <t>HMMU2021738</t>
+  </si>
+  <si>
+    <t>OCGU2007623</t>
+  </si>
+  <si>
+    <t>CAIU7638093</t>
+  </si>
+  <si>
+    <t>DJLAXA4353640</t>
+  </si>
+  <si>
+    <t>SEGU5086618</t>
+  </si>
+  <si>
+    <t>DJLAXA4353643</t>
+  </si>
+  <si>
+    <t>HMMU6275200</t>
+  </si>
+  <si>
+    <t>DJLAXA4353642</t>
+  </si>
+  <si>
+    <t>HDMU4750685</t>
+  </si>
+  <si>
+    <t>DJLAXA4354633</t>
+  </si>
+  <si>
+    <t>7075451844</t>
+  </si>
+  <si>
+    <t>QSWB8343786</t>
+  </si>
+  <si>
+    <t>BMOU5210850</t>
+  </si>
+  <si>
+    <t>DJLAXA4354656</t>
+  </si>
+  <si>
+    <t>7075450024</t>
+  </si>
+  <si>
+    <t>HKWB8461197</t>
+  </si>
+  <si>
+    <t>EITU0213587</t>
+  </si>
+  <si>
+    <t>EVER LENIENT</t>
+  </si>
+  <si>
+    <t>00034</t>
+  </si>
+  <si>
+    <t>DJLAXA4362941</t>
+  </si>
+  <si>
+    <t>7075449997</t>
+  </si>
+  <si>
+    <t>142950215131</t>
+  </si>
+  <si>
+    <t>TCLU4191259</t>
+  </si>
+  <si>
+    <t>7075454140</t>
+  </si>
+  <si>
+    <t>QSWB8343583</t>
+  </si>
+  <si>
+    <t>SEGU1559625</t>
+  </si>
+  <si>
+    <t>BSIU4039353</t>
+  </si>
+  <si>
+    <t>KOCU4010580</t>
+  </si>
+  <si>
+    <t>KOCU4015411</t>
+  </si>
+  <si>
+    <t>DFSU6653304</t>
+  </si>
+  <si>
+    <t>DJLAXA4354627</t>
+  </si>
+  <si>
+    <t>HMMU6294005</t>
+  </si>
+  <si>
+    <t>DJLAXA4354628</t>
+  </si>
+  <si>
+    <t>MRKU0384785</t>
+  </si>
+  <si>
+    <t>DJLAXA4346992</t>
+  </si>
+  <si>
+    <t>7075439054</t>
+  </si>
+  <si>
+    <t>582518093</t>
+  </si>
+  <si>
+    <t>TGHU8424086</t>
   </si>
   <si>
     <t>MSC RAPALLO</t>
@@ -59,255 +314,6 @@
     <t>00922</t>
   </si>
   <si>
-    <t>DJLAXA4329015</t>
-  </si>
-  <si>
-    <t>7075445547</t>
-  </si>
-  <si>
-    <t>582430799</t>
-  </si>
-  <si>
-    <t>MRKU2582291</t>
-  </si>
-  <si>
-    <t>DJLAXA4329012</t>
-  </si>
-  <si>
-    <t>KOCU4179987</t>
-  </si>
-  <si>
-    <t>DJLAXA4335935</t>
-  </si>
-  <si>
-    <t>7075445104</t>
-  </si>
-  <si>
-    <t>GJWB8478842</t>
-  </si>
-  <si>
-    <t>XINU1440788</t>
-  </si>
-  <si>
-    <t>DJLAXA4328846</t>
-  </si>
-  <si>
-    <t>7075439706</t>
-  </si>
-  <si>
-    <t>MAE581322970</t>
-  </si>
-  <si>
-    <t>HMMU6271150</t>
-  </si>
-  <si>
-    <t>HYUNDAI FORCE</t>
-  </si>
-  <si>
-    <t>00073</t>
-  </si>
-  <si>
-    <t>7075447565</t>
-  </si>
-  <si>
-    <t>QSWB8343317</t>
-  </si>
-  <si>
-    <t>TCNU6978446</t>
-  </si>
-  <si>
-    <t>CAIU9839733</t>
-  </si>
-  <si>
-    <t>073E</t>
-  </si>
-  <si>
-    <t>7075448983</t>
-  </si>
-  <si>
-    <t>HDMUQSLB8198704</t>
-  </si>
-  <si>
-    <t>DFSU6717754</t>
-  </si>
-  <si>
-    <t>GAOU6216528</t>
-  </si>
-  <si>
-    <t>TCLU9474293</t>
-  </si>
-  <si>
-    <t>HDMU6820478</t>
-  </si>
-  <si>
-    <t>7075443731</t>
-  </si>
-  <si>
-    <t>SSWB2103155</t>
-  </si>
-  <si>
-    <t>TRLU8089157</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>7075450317</t>
-  </si>
-  <si>
-    <t>BUWB9305941</t>
-  </si>
-  <si>
-    <t>TCNU5089172</t>
-  </si>
-  <si>
-    <t>DJLAXA4333636</t>
-  </si>
-  <si>
-    <t>7075447776</t>
-  </si>
-  <si>
-    <t>QSWB8343416</t>
-  </si>
-  <si>
-    <t>DFSU4238177</t>
-  </si>
-  <si>
-    <t>DJLAXA4328818</t>
-  </si>
-  <si>
-    <t>7075438560</t>
-  </si>
-  <si>
-    <t>JTWB0405279</t>
-  </si>
-  <si>
-    <t>GAOU6174530</t>
-  </si>
-  <si>
-    <t>7075440274</t>
-  </si>
-  <si>
-    <t>NGWB1770791</t>
-  </si>
-  <si>
-    <t>CAIU9980588</t>
-  </si>
-  <si>
-    <t>FCIU5177025</t>
-  </si>
-  <si>
-    <t>TEMU1947756</t>
-  </si>
-  <si>
-    <t>DJLAXA4328792</t>
-  </si>
-  <si>
-    <t>7075446219</t>
-  </si>
-  <si>
-    <t>QSWB8343538</t>
-  </si>
-  <si>
-    <t>MSDU7252112</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>7075439341</t>
-  </si>
-  <si>
-    <t>MEDUMY687037</t>
-  </si>
-  <si>
-    <t>CAIU7508926</t>
-  </si>
-  <si>
-    <t>MSDU7251672</t>
-  </si>
-  <si>
-    <t>DJLAXA4348531</t>
-  </si>
-  <si>
-    <t>7075449480</t>
-  </si>
-  <si>
-    <t>TCNU8398318</t>
-  </si>
-  <si>
-    <t>7075442409</t>
-  </si>
-  <si>
-    <t>ZHWB1334642</t>
-  </si>
-  <si>
-    <t>TEMU7752957</t>
-  </si>
-  <si>
-    <t>BMOU4165042</t>
-  </si>
-  <si>
-    <t>7075450679</t>
-  </si>
-  <si>
-    <t>HDMUKGWB4904925</t>
-  </si>
-  <si>
-    <t>CAIU4464470</t>
-  </si>
-  <si>
-    <t>CAIU7255664</t>
-  </si>
-  <si>
-    <t>CAIU7346471</t>
-  </si>
-  <si>
-    <t>CAIU7517337</t>
-  </si>
-  <si>
-    <t>CAIU7690337</t>
-  </si>
-  <si>
-    <t>CAIU9969629</t>
-  </si>
-  <si>
-    <t>GAOU6289930</t>
-  </si>
-  <si>
-    <t>HDMU6469419</t>
-  </si>
-  <si>
-    <t>HDMU6518827</t>
-  </si>
-  <si>
-    <t>HMMU6126418</t>
-  </si>
-  <si>
-    <t>HMMU6162225</t>
-  </si>
-  <si>
-    <t>TCLU9755963</t>
-  </si>
-  <si>
-    <t>TCNU8649033</t>
-  </si>
-  <si>
-    <t>MRKU0384785</t>
-  </si>
-  <si>
-    <t>DJLAXA4346992</t>
-  </si>
-  <si>
-    <t>7075439054</t>
-  </si>
-  <si>
-    <t>582518093</t>
-  </si>
-  <si>
-    <t>TGHU8424086</t>
-  </si>
-  <si>
     <t>DJLAXA4340686</t>
   </si>
   <si>
@@ -317,37 +323,34 @@
     <t>X1762913</t>
   </si>
   <si>
-    <t>KOCU4184880</t>
-  </si>
-  <si>
-    <t>DJLAXA4335936</t>
-  </si>
-  <si>
-    <t>TGHU7718152</t>
-  </si>
-  <si>
-    <t>DJLAXA4329018</t>
-  </si>
-  <si>
-    <t>PONU7935855</t>
-  </si>
-  <si>
-    <t>DJLAXA4329017</t>
-  </si>
-  <si>
-    <t>PONU7589006</t>
-  </si>
-  <si>
-    <t>DJLAXA4329016</t>
-  </si>
-  <si>
-    <t>FCIU5356289</t>
-  </si>
-  <si>
-    <t>7075440191</t>
-  </si>
-  <si>
-    <t>OSWB1770671</t>
+    <t>HDMU2741555</t>
+  </si>
+  <si>
+    <t>DJLAXA4354508</t>
+  </si>
+  <si>
+    <t>7075443741</t>
+  </si>
+  <si>
+    <t>SSWB2103163</t>
+  </si>
+  <si>
+    <t>DFSU4325796</t>
+  </si>
+  <si>
+    <t>DJLAXA4354632</t>
+  </si>
+  <si>
+    <t>BMOU4595085</t>
+  </si>
+  <si>
+    <t>DJLAXA4354658</t>
+  </si>
+  <si>
+    <t>7075449679</t>
+  </si>
+  <si>
+    <t>HKWB8461191</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -463,39 +466,39 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -503,764 +506,764 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
         <v>35</v>
       </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" t="s">
-        <v>78</v>
-      </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" t="s">
-        <v>78</v>
-      </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
         <v>35</v>
       </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -1269,73 +1272,93 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
         <v>110</v>
       </c>
-      <c r="E47" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E48" t="s">
         <v>111</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/APMLA/Test.xlsx
+++ b/APMLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="199">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,325 +32,583 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCNU7405813</t>
-  </si>
-  <si>
-    <t>HYUNDAI TACOMA</t>
-  </si>
-  <si>
-    <t>00087</t>
-  </si>
-  <si>
-    <t>DJLAXA4354630</t>
-  </si>
-  <si>
-    <t>7075442363</t>
-  </si>
-  <si>
-    <t>ZHWB1334641</t>
-  </si>
-  <si>
-    <t>DFSU6789374</t>
-  </si>
-  <si>
-    <t>MAERSK EDMONTON</t>
-  </si>
-  <si>
-    <t>00923</t>
-  </si>
-  <si>
-    <t>DJLAXA4348527</t>
-  </si>
-  <si>
-    <t>7075449478</t>
-  </si>
-  <si>
-    <t>HKWB8461188</t>
-  </si>
-  <si>
-    <t>CAIU9839733</t>
-  </si>
-  <si>
-    <t>HYUNDAI FORCE</t>
-  </si>
-  <si>
-    <t>073E</t>
-  </si>
-  <si>
-    <t>7075448983</t>
-  </si>
-  <si>
-    <t>HDMUQSLB8198704</t>
-  </si>
-  <si>
-    <t>DFSU6717754</t>
-  </si>
-  <si>
-    <t>GAOU6216528</t>
-  </si>
-  <si>
-    <t>TCLU9474293</t>
-  </si>
-  <si>
-    <t>BSIU3218610</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>7075442647</t>
-  </si>
-  <si>
-    <t>YZWB0803928</t>
-  </si>
-  <si>
-    <t>BEAU2048802</t>
-  </si>
-  <si>
-    <t>TEMU1653807</t>
-  </si>
-  <si>
-    <t>TCLU9198153</t>
-  </si>
-  <si>
-    <t>00073</t>
-  </si>
-  <si>
-    <t>DJLAXA4353648</t>
-  </si>
-  <si>
-    <t>7075447939</t>
-  </si>
-  <si>
-    <t>QSWB8343401</t>
-  </si>
-  <si>
-    <t>TCNU4579920</t>
-  </si>
-  <si>
-    <t>DJLAXA4354629</t>
-  </si>
-  <si>
-    <t>BSIU9184225</t>
-  </si>
-  <si>
-    <t>087E</t>
-  </si>
-  <si>
-    <t>7075453330</t>
-  </si>
-  <si>
-    <t>HDMUKGWB4904907</t>
-  </si>
-  <si>
-    <t>BSIU9532172</t>
-  </si>
-  <si>
-    <t>CAIU7330963</t>
-  </si>
-  <si>
-    <t>FCIU8714200</t>
-  </si>
-  <si>
-    <t>GAOU6181680</t>
-  </si>
-  <si>
-    <t>GESU5823367</t>
-  </si>
-  <si>
-    <t>HDMU6572474</t>
-  </si>
-  <si>
-    <t>HDMU6762509</t>
-  </si>
-  <si>
-    <t>HMMU6181550</t>
-  </si>
-  <si>
-    <t>HMMU6217966</t>
-  </si>
-  <si>
-    <t>TCNU1968039</t>
-  </si>
-  <si>
-    <t>TCNU7406717</t>
-  </si>
-  <si>
-    <t>TEMU7318961</t>
-  </si>
-  <si>
-    <t>TLLU5771100</t>
-  </si>
-  <si>
-    <t>TRLU6995717</t>
-  </si>
-  <si>
-    <t>HMMU2050504</t>
-  </si>
-  <si>
-    <t>7075445943</t>
-  </si>
-  <si>
-    <t>YZWB0803931</t>
-  </si>
-  <si>
-    <t>HMMU2021738</t>
-  </si>
-  <si>
-    <t>OCGU2007623</t>
-  </si>
-  <si>
-    <t>CAIU7638093</t>
-  </si>
-  <si>
-    <t>DJLAXA4353640</t>
-  </si>
-  <si>
-    <t>SEGU5086618</t>
-  </si>
-  <si>
-    <t>DJLAXA4353643</t>
-  </si>
-  <si>
-    <t>HMMU6275200</t>
-  </si>
-  <si>
-    <t>DJLAXA4353642</t>
-  </si>
-  <si>
-    <t>HDMU4750685</t>
-  </si>
-  <si>
-    <t>DJLAXA4354633</t>
-  </si>
-  <si>
-    <t>7075451844</t>
-  </si>
-  <si>
-    <t>QSWB8343786</t>
-  </si>
-  <si>
-    <t>BMOU5210850</t>
-  </si>
-  <si>
-    <t>DJLAXA4354656</t>
-  </si>
-  <si>
-    <t>7075450024</t>
-  </si>
-  <si>
-    <t>HKWB8461197</t>
-  </si>
-  <si>
-    <t>EITU0213587</t>
-  </si>
-  <si>
-    <t>EVER LENIENT</t>
-  </si>
-  <si>
-    <t>00034</t>
-  </si>
-  <si>
-    <t>DJLAXA4362941</t>
-  </si>
-  <si>
-    <t>7075449997</t>
-  </si>
-  <si>
-    <t>142950215131</t>
-  </si>
-  <si>
-    <t>TCLU4191259</t>
-  </si>
-  <si>
-    <t>7075454140</t>
-  </si>
-  <si>
-    <t>QSWB8343583</t>
-  </si>
-  <si>
-    <t>SEGU1559625</t>
-  </si>
-  <si>
-    <t>BSIU4039353</t>
-  </si>
-  <si>
-    <t>KOCU4010580</t>
-  </si>
-  <si>
-    <t>KOCU4015411</t>
-  </si>
-  <si>
-    <t>DFSU6653304</t>
-  </si>
-  <si>
-    <t>DJLAXA4354627</t>
-  </si>
-  <si>
-    <t>HMMU6294005</t>
-  </si>
-  <si>
-    <t>DJLAXA4354628</t>
-  </si>
-  <si>
-    <t>MRKU0384785</t>
-  </si>
-  <si>
-    <t>DJLAXA4346992</t>
-  </si>
-  <si>
-    <t>7075439054</t>
-  </si>
-  <si>
-    <t>582518093</t>
-  </si>
-  <si>
-    <t>TGHU8424086</t>
-  </si>
-  <si>
-    <t>MSC RAPALLO</t>
-  </si>
-  <si>
-    <t>00922</t>
-  </si>
-  <si>
-    <t>DJLAXA4340686</t>
-  </si>
-  <si>
-    <t>7075446176</t>
-  </si>
-  <si>
-    <t>X1762913</t>
-  </si>
-  <si>
-    <t>HDMU2741555</t>
-  </si>
-  <si>
-    <t>DJLAXA4354508</t>
-  </si>
-  <si>
-    <t>7075443741</t>
-  </si>
-  <si>
-    <t>SSWB2103163</t>
-  </si>
-  <si>
-    <t>DFSU4325796</t>
-  </si>
-  <si>
-    <t>DJLAXA4354632</t>
-  </si>
-  <si>
-    <t>BMOU4595085</t>
-  </si>
-  <si>
-    <t>DJLAXA4354658</t>
-  </si>
-  <si>
-    <t>7075449679</t>
-  </si>
-  <si>
-    <t>HKWB8461191</t>
+    <t>FCIU9323473</t>
+  </si>
+  <si>
+    <t>EVER LUCENT</t>
+  </si>
+  <si>
+    <t>00861</t>
+  </si>
+  <si>
+    <t>DJLAXA4434346</t>
+  </si>
+  <si>
+    <t>7075462916</t>
+  </si>
+  <si>
+    <t>142950222986</t>
+  </si>
+  <si>
+    <t>BSIU2520230</t>
+  </si>
+  <si>
+    <t>61031</t>
+  </si>
+  <si>
+    <t>DJLAXA4424941</t>
+  </si>
+  <si>
+    <t>7075462876</t>
+  </si>
+  <si>
+    <t>142950222978</t>
+  </si>
+  <si>
+    <t>BMOU5912918</t>
+  </si>
+  <si>
+    <t>HYUNDAI COURAGE</t>
+  </si>
+  <si>
+    <t>080E</t>
+  </si>
+  <si>
+    <t>7075470351</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4911140</t>
+  </si>
+  <si>
+    <t>BSIU9290340</t>
+  </si>
+  <si>
+    <t>CAIU7437397</t>
+  </si>
+  <si>
+    <t>CAIU7497776</t>
+  </si>
+  <si>
+    <t>CAIU7666346</t>
+  </si>
+  <si>
+    <t>CAIU7710393</t>
+  </si>
+  <si>
+    <t>GAOU6162191</t>
+  </si>
+  <si>
+    <t>HDMU6695817</t>
+  </si>
+  <si>
+    <t>HDMU6874005</t>
+  </si>
+  <si>
+    <t>SEGU4710416</t>
+  </si>
+  <si>
+    <t>SEGU6040083</t>
+  </si>
+  <si>
+    <t>TCNU7095317</t>
+  </si>
+  <si>
+    <t>TEMU7088956</t>
+  </si>
+  <si>
+    <t>TRLU8142288</t>
+  </si>
+  <si>
+    <t>WFHU5182592</t>
+  </si>
+  <si>
+    <t>HDMU6649215</t>
+  </si>
+  <si>
+    <t>7075470349</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4911125</t>
+  </si>
+  <si>
+    <t>HDMU6741255</t>
+  </si>
+  <si>
+    <t>HDMU6755979</t>
+  </si>
+  <si>
+    <t>HDMU6761380</t>
+  </si>
+  <si>
+    <t>HMMU6009263</t>
+  </si>
+  <si>
+    <t>HMMU6247359</t>
+  </si>
+  <si>
+    <t>BMOU4272565</t>
+  </si>
+  <si>
+    <t>BSIU9334428</t>
+  </si>
+  <si>
+    <t>CAIU4453408</t>
+  </si>
+  <si>
+    <t>CAIU7130292</t>
+  </si>
+  <si>
+    <t>CAIU7525749</t>
+  </si>
+  <si>
+    <t>CLKU5004953</t>
+  </si>
+  <si>
+    <t>DFSU6651873</t>
+  </si>
+  <si>
+    <t>GCXU5014083</t>
+  </si>
+  <si>
+    <t>HDMU6579334</t>
+  </si>
+  <si>
+    <t>TCLU2737741</t>
+  </si>
+  <si>
+    <t>MSC ARIANE</t>
+  </si>
+  <si>
+    <t>00925</t>
+  </si>
+  <si>
+    <t>DJLAXA4426900</t>
+  </si>
+  <si>
+    <t>7075457738</t>
+  </si>
+  <si>
+    <t>MY734151</t>
+  </si>
+  <si>
+    <t>BMOU5229619</t>
+  </si>
+  <si>
+    <t>7075470350</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4911135</t>
+  </si>
+  <si>
+    <t>CAIU7341870</t>
+  </si>
+  <si>
+    <t>HDMU6528698</t>
+  </si>
+  <si>
+    <t>HMMU6011722</t>
+  </si>
+  <si>
+    <t>HMMU6166154</t>
+  </si>
+  <si>
+    <t>HMMU6239245</t>
+  </si>
+  <si>
+    <t>SEGU5105404</t>
+  </si>
+  <si>
+    <t>TCLU9902025</t>
+  </si>
+  <si>
+    <t>TCNU5087729</t>
+  </si>
+  <si>
+    <t>TEMU7262420</t>
+  </si>
+  <si>
+    <t>BMOU4697791</t>
+  </si>
+  <si>
+    <t>7075470348</t>
+  </si>
+  <si>
+    <t>HDMUKGWB4911124</t>
+  </si>
+  <si>
+    <t>CAIU4436571</t>
+  </si>
+  <si>
+    <t>CAIU7385550</t>
+  </si>
+  <si>
+    <t>FCIU8959199</t>
+  </si>
+  <si>
+    <t>GAOU6382637</t>
+  </si>
+  <si>
+    <t>GCXU5017360</t>
+  </si>
+  <si>
+    <t>HDMU6535300</t>
+  </si>
+  <si>
+    <t>HDMU6672940</t>
+  </si>
+  <si>
+    <t>SEGU5105929</t>
+  </si>
+  <si>
+    <t>SEGU5146213</t>
+  </si>
+  <si>
+    <t>TCNU5073366</t>
+  </si>
+  <si>
+    <t>TCNU7400088</t>
+  </si>
+  <si>
+    <t>TCNU7401206</t>
+  </si>
+  <si>
+    <t>TCNU7643350</t>
+  </si>
+  <si>
+    <t>TGBU6360695</t>
+  </si>
+  <si>
+    <t>TGHU6674846</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>7075465334</t>
+  </si>
+  <si>
+    <t>X1871813</t>
+  </si>
+  <si>
+    <t>EGSU3022843</t>
+  </si>
+  <si>
+    <t>7075463645</t>
+  </si>
+  <si>
+    <t>EGLV146900467791</t>
+  </si>
+  <si>
+    <t>SUDU7486589</t>
+  </si>
+  <si>
+    <t>DJLAXA4436426</t>
+  </si>
+  <si>
+    <t>7075465059</t>
+  </si>
+  <si>
+    <t>582833306</t>
+  </si>
+  <si>
+    <t>HMMU6165749</t>
+  </si>
+  <si>
+    <t>HYUNDAI BRAVE</t>
+  </si>
+  <si>
+    <t>00078</t>
+  </si>
+  <si>
+    <t>DJLAXA4437610</t>
+  </si>
+  <si>
+    <t>7075459258</t>
+  </si>
+  <si>
+    <t>NGWB1772341</t>
+  </si>
+  <si>
+    <t>FSCU4993506</t>
+  </si>
+  <si>
+    <t>NAVARINO</t>
+  </si>
+  <si>
+    <t>00017</t>
+  </si>
+  <si>
+    <t>DJLAXA4438245</t>
+  </si>
+  <si>
+    <t>7075456760</t>
+  </si>
+  <si>
+    <t>142950218351</t>
+  </si>
+  <si>
+    <t>TLLU5815609</t>
+  </si>
+  <si>
+    <t>00080</t>
+  </si>
+  <si>
+    <t>DJLAXA4437815</t>
+  </si>
+  <si>
+    <t>7075465605</t>
+  </si>
+  <si>
+    <t>ZHWB1334704</t>
+  </si>
+  <si>
+    <t>HDMU6678379</t>
+  </si>
+  <si>
+    <t>DJLAXA4437814</t>
+  </si>
+  <si>
+    <t>TCNU5051536</t>
+  </si>
+  <si>
+    <t>DJLAXA4437842</t>
+  </si>
+  <si>
+    <t>7075466819</t>
+  </si>
+  <si>
+    <t>QSWB8349067</t>
+  </si>
+  <si>
+    <t>DRYU9920975</t>
+  </si>
+  <si>
+    <t>DJLAXA4437816</t>
+  </si>
+  <si>
+    <t>7075465489</t>
+  </si>
+  <si>
+    <t>ZHWB1334695</t>
+  </si>
+  <si>
+    <t>TRHU2449330</t>
+  </si>
+  <si>
+    <t>7075461144</t>
+  </si>
+  <si>
+    <t>HKWB8461231</t>
+  </si>
+  <si>
+    <t>SEGU6046590</t>
+  </si>
+  <si>
+    <t>7075461139</t>
+  </si>
+  <si>
+    <t>HKWB8461233</t>
+  </si>
+  <si>
+    <t>HDMU6839600</t>
+  </si>
+  <si>
+    <t>7075465107</t>
+  </si>
+  <si>
+    <t>HKWB8477928</t>
+  </si>
+  <si>
+    <t>DFSU6224444</t>
+  </si>
+  <si>
+    <t>DJLAXA4441952</t>
+  </si>
+  <si>
+    <t>7075444775</t>
+  </si>
+  <si>
+    <t>HDMUKNCA0207298</t>
+  </si>
+  <si>
+    <t>DFSU6217759</t>
+  </si>
+  <si>
+    <t>DJLAXA4437609</t>
+  </si>
+  <si>
+    <t>HDMU2668156</t>
+  </si>
+  <si>
+    <t>DJLAXA4437810</t>
+  </si>
+  <si>
+    <t>7075465550</t>
+  </si>
+  <si>
+    <t>ZHWB1334689</t>
+  </si>
+  <si>
+    <t>TLLU1086330</t>
+  </si>
+  <si>
+    <t>DJLAXA4438302</t>
+  </si>
+  <si>
+    <t>7075471132</t>
+  </si>
+  <si>
+    <t>BUWB9307652</t>
+  </si>
+  <si>
+    <t>HMMU6030506</t>
+  </si>
+  <si>
+    <t>DJLAXA4438402</t>
+  </si>
+  <si>
+    <t>7075463991</t>
+  </si>
+  <si>
+    <t>GJWB8478849</t>
+  </si>
+  <si>
+    <t>BMOU4612794</t>
+  </si>
+  <si>
+    <t>DJLAXA4437841</t>
+  </si>
+  <si>
+    <t>SUDU7478156</t>
+  </si>
+  <si>
+    <t>SEALAND PHILADELPHIA</t>
+  </si>
+  <si>
+    <t>DJLAXA4450401</t>
+  </si>
+  <si>
+    <t>7075424607</t>
+  </si>
+  <si>
+    <t>582005232</t>
+  </si>
+  <si>
+    <t>MRKU5386944</t>
+  </si>
+  <si>
+    <t>DJLAXA4445306</t>
+  </si>
+  <si>
+    <t>7075461494</t>
+  </si>
+  <si>
+    <t>969210134</t>
+  </si>
+  <si>
+    <t>TCKU6441200</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>7075463105</t>
+  </si>
+  <si>
+    <t>583331914</t>
+  </si>
+  <si>
+    <t>CBHU6357070</t>
+  </si>
+  <si>
+    <t>00860</t>
+  </si>
+  <si>
+    <t>DJLAXA4438239</t>
+  </si>
+  <si>
+    <t>7075459091</t>
+  </si>
+  <si>
+    <t>6213494420</t>
+  </si>
+  <si>
+    <t>HMMU6004180</t>
+  </si>
+  <si>
+    <t>DJLAXA4438401</t>
+  </si>
+  <si>
+    <t>DJLAXA4452015</t>
+  </si>
+  <si>
+    <t>GAOU6229000</t>
+  </si>
+  <si>
+    <t>7075463101</t>
+  </si>
+  <si>
+    <t>HKWB8461257</t>
+  </si>
+  <si>
+    <t>TGBU6347435</t>
+  </si>
+  <si>
+    <t>FCIU4943553</t>
+  </si>
+  <si>
+    <t>TCLU5959296</t>
+  </si>
+  <si>
+    <t>DJLAXA4445307</t>
+  </si>
+  <si>
+    <t>MEDU6640902</t>
+  </si>
+  <si>
+    <t>7075485995</t>
+  </si>
+  <si>
+    <t>MY729219</t>
+  </si>
+  <si>
+    <t>7075461142</t>
+  </si>
+  <si>
+    <t>7075457716</t>
+  </si>
+  <si>
+    <t>MEDU8820014</t>
+  </si>
+  <si>
+    <t>MEDU8089086</t>
+  </si>
+  <si>
+    <t>TGHU0428254</t>
+  </si>
+  <si>
+    <t>DJLAXA4433434</t>
+  </si>
+  <si>
+    <t>7075463232</t>
+  </si>
+  <si>
+    <t>HKWB8461254</t>
+  </si>
+  <si>
+    <t>MRKU0610265</t>
+  </si>
+  <si>
+    <t>09245</t>
+  </si>
+  <si>
+    <t>DJLAXA4445272</t>
+  </si>
+  <si>
+    <t>7075428253</t>
+  </si>
+  <si>
+    <t>968952418</t>
   </si>
 </sst>
 </file>
@@ -395,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -446,919 +704,1839 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
         <v>109</v>
       </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="F64" t="s">
         <v>110</v>
       </c>
-      <c r="E48" t="s">
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
         <v>111</v>
       </c>
-      <c r="F48" t="s">
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
         <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" t="s">
+        <v>127</v>
+      </c>
+      <c r="F69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" t="s">
+        <v>158</v>
+      </c>
+      <c r="F78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" t="s">
+        <v>151</v>
+      </c>
+      <c r="F82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" t="s">
+        <v>147</v>
+      </c>
+      <c r="F83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" t="s">
+        <v>177</v>
+      </c>
+      <c r="E86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" t="s">
+        <v>187</v>
+      </c>
+      <c r="E91" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
